--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -36,88 +36,97 @@
   <connection id="5" name="D_Armaments4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="D_Attacks" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="D_Armaments5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="7" name="D_Attacks" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="D_Attacks1" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="D_Attacks1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="D_Monsters" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="D_Monsters" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="D_Monsters1" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="D_Monsters1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="D_Monsters2" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="D_Monsters2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="D_Monsters3" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="D_Monsters3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="12" name="D_Monsters4" type="4" refreshedVersion="0" background="1">
+  <connection id="13" name="D_Monsters4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="13" name="D_Potions" type="4" refreshedVersion="0" background="1">
+  <connection id="14" name="D_Potions" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="14" name="D_Potions1" type="4" refreshedVersion="0" background="1">
+  <connection id="15" name="D_Potions1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="15" name="D_Potions2" type="4" refreshedVersion="0" background="1">
+  <connection id="16" name="D_Potions2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="16" name="D_Potions3" type="4" refreshedVersion="0" background="1">
+  <connection id="17" name="D_Potions3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="17" name="D_Potions4" type="4" refreshedVersion="0" background="1">
+  <connection id="18" name="D_Potions4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="18" name="D_Rooms" type="4" refreshedVersion="0" background="1">
+  <connection id="19" name="D_Potions5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="20" name="D_Rooms" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="19" name="D_Rooms_test" type="4" refreshedVersion="0" background="1">
+  <connection id="21" name="D_Rooms_test" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms_test.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="20" name="D_Rooms1" type="4" refreshedVersion="0" background="1">
+  <connection id="22" name="D_Rooms1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="21" name="D_Rooms2" type="4" refreshedVersion="0" background="1">
+  <connection id="23" name="D_Rooms2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="22" name="D_Rooms3" type="4" refreshedVersion="0" background="1">
+  <connection id="24" name="D_Rooms3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="23" name="D_Rooms4" type="4" refreshedVersion="0" background="1">
+  <connection id="25" name="D_Rooms4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" name="D_text" type="4" refreshedVersion="0" background="1">
+  <connection id="26" name="D_text" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" name="D_text1" type="4" refreshedVersion="0" background="1">
+  <connection id="27" name="D_text1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" name="D_text2" type="4" refreshedVersion="0" background="1">
+  <connection id="28" name="D_text2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="27" name="D_Weapons" type="4" refreshedVersion="0" background="1">
+  <connection id="29" name="D_Weapons" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="28" name="D_Weapons1" type="4" refreshedVersion="0" background="1">
+  <connection id="30" name="D_Weapons1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="29" name="D_Weapons2" type="4" refreshedVersion="0" background="1">
+  <connection id="31" name="D_Weapons2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="30" name="D_Weapons3" type="4" refreshedVersion="0" background="1">
+  <connection id="32" name="D_Weapons3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="31" name="D_Weapons4" type="4" refreshedVersion="0" background="1">
+  <connection id="33" name="D_Weapons4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="32" name="D_Weapons5" type="4" refreshedVersion="0" background="1">
+  <connection id="34" name="D_Weapons5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="33" name="Schema_Potions" type="4" refreshedVersion="0" background="1">
+  <connection id="35" name="D_Weapons6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="36" name="Schema_Potions" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Schema_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -579,9 +588,6 @@
     <t>Treasure Chamber: hard opponents, &lt;= strong items</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
     <t>weak</t>
   </si>
   <si>
@@ -916,6 +922,9 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>Item Class</t>
   </si>
 </sst>
 </file>
@@ -1324,6 +1333,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,336 +1345,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="82">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1914,6 +1601,68 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2360,7 +2109,44 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2434,6 +2220,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2441,7 +2228,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2450,29 +2237,8 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2498,6 +2264,63 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2725,6 +2548,68 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -3150,6 +3035,68 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -3401,6 +3348,68 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -3526,33 +3535,6 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema7">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Armaments">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Armament" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Class" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Class_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_Low_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_High_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Armor" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Speed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Type" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Bonus" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema9">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Attacks">
@@ -3595,35 +3577,6 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Kill_Bonus_Type" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Kill_Bonus_Low" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Kill_Bonus_High" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Schema ID="Schema11">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Potions">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Potion" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Class" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Class_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_Low_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_High_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Target" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Effect" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Mode" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="n" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
                 </xsd:sequence>
@@ -3684,7 +3637,63 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema15">
+  <Schema ID="Schema8">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Armaments">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Armament" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Item_Class" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Class_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_Low_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_High_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Armor" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Speed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Type" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Bonus" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema12">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Potions">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Potion" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Item_Class" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Class_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_Low_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_High_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Target" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Effect" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Mode" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="n" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema14">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Weapons">
         <xsd:complexType>
@@ -3693,7 +3702,7 @@
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Class" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Item_Class" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Class_Multiplier" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_Low_Multiplier" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Stats_High_Multiplier" form="unqualified"/>
@@ -3714,29 +3723,29 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="30" Name="Armaments_Map" RootElement="Armaments" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  <Map ID="36" Name="Armaments_Map" RootElement="Armaments" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="31" Name="Attacks_Map" RootElement="Attacks" SchemaID="Schema9" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="32" Name="Monsters_Map" RootElement="Monsters" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="12" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="13" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="33" Name="Potions_Map" RootElement="Potions" SchemaID="Schema11" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="17" DataBindingLoadMode="1"/>
+  <Map ID="37" Name="Potions_Map" RootElement="Potions" SchemaID="Schema12" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="19" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="34" Name="Rooms_Map" RootElement="Rooms" SchemaID="Schema13" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="23" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="25" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="35" Name="Weapons_Map" RootElement="Weapons" SchemaID="Schema15" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="32" DataBindingLoadMode="1"/>
+  <Map ID="38" Name="Weapons_Map" RootElement="Weapons" SchemaID="Schema14" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="35" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A2:P8" tableType="xml" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" connectionId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A2:P8" tableType="xml" totalsRowShown="0" headerRowDxfId="81" headerRowBorderDxfId="80" connectionId="25">
   <autoFilter ref="A2:P8"/>
   <tableColumns count="16">
     <tableColumn id="1" uniqueName="Name" name="Name">
@@ -3793,28 +3802,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:G5" tableType="xml" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" connectionId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:G5" tableType="xml" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" connectionId="8">
   <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="75">
       <xmlColumnPr mapId="31" xpath="/Attacks/Attack/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="1">
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="74">
       <xmlColumnPr mapId="31" xpath="/Attacks/Attack/Stats_Low_Multiplier" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="0">
+    <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="73">
       <xmlColumnPr mapId="31" xpath="/Attacks/Attack/Stats_High_Multiplier" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="74">
+    <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="72">
       <xmlColumnPr mapId="31" xpath="/Attacks/Attack/HP_Damage" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="73">
+    <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="71">
       <xmlColumnPr mapId="31" xpath="/Attacks/Attack/Hit_Probability" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="72">
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="70">
       <xmlColumnPr mapId="31" xpath="/Attacks/Attack/Effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="x" name="x" dataDxfId="71">
+    <tableColumn id="5" uniqueName="x" name="x" dataDxfId="69">
       <xmlColumnPr mapId="31" xpath="/Attacks/Attack/x" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3823,46 +3832,46 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="70" dataDxfId="68" headerRowBorderDxfId="69" tableBorderDxfId="67" connectionId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" connectionId="13">
   <autoFilter ref="A1:M13"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="66">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="64">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="65">
+    <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="63">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Level" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="3">
+    <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="62">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Stats_Low_Multiplier" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="2">
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="61">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Stats_High_Multiplier" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="64">
+    <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="60">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="63">
+    <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="59">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Strength" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="62">
+    <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="58">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="61">
+    <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="57">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Accuracy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="60">
+    <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="56">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Kill_Bonus_Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="59">
+    <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="55">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Kill_Bonus_Low" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="58">
+    <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="54">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Kill_Bonus_High" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Image_Big" name="Image Big" dataDxfId="57">
+    <tableColumn id="11" uniqueName="Image_Big" name="Image Big" dataDxfId="53">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Image_Big" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Image_Small" name="Image Small" dataDxfId="56">
+    <tableColumn id="12" uniqueName="Image_Small" name="Image Small" dataDxfId="52">
       <xmlColumnPr mapId="32" xpath="/Monsters/Monster/Image_Small" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3871,41 +3880,41 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:K16" tableType="xml" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="51" connectionId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:K16" tableType="xml" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47" connectionId="6">
   <autoFilter ref="A1:K16"/>
   <tableColumns count="11">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="50">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="Class" name="Class" dataDxfId="49">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Class" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="48">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Class_Multiplier" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="5">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Stats_Low_Multiplier" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="4">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Stats_High_Multiplier" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="47">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Armor" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="46">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Speed" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="45">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Type" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="44">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Bonus" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="Image_Big" name="Image Big" dataDxfId="43">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Image_Big" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="Image_Small" name="Image Small" dataDxfId="42">
-      <xmlColumnPr mapId="30" xpath="/Armaments/Armament/Image_Small" xmlDataType="string"/>
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="46">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="45">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Item_Class" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="44">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Class_Multiplier" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="43">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Stats_Low_Multiplier" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="42">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Stats_High_Multiplier" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="41">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Armor" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="40">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Speed" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="39">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Type" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="38">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Bonus" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="Image_Big" name="Image Big" dataDxfId="37">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Image_Big" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="Image_Small" name="Image Small" dataDxfId="36">
+      <xmlColumnPr mapId="36" xpath="/Armaments/Armament/Image_Small" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3913,47 +3922,47 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M11" tableType="xml" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37" connectionId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M11" tableType="xml" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" connectionId="19">
   <autoFilter ref="A1:M11"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="36">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="Class" name="Class" dataDxfId="35">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Class" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="34">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Class_Multiplier" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="7">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Stats_Low_Multiplier" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="6">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Stats_High_Multiplier" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="33">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Description" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="32">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Target" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="31">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Effect" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="30">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Mode" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="29">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/x" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="28">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/n" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="Image_Big" name="Image Big" dataDxfId="27">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Image_Big" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="Image_Small" name="Image Small" dataDxfId="26">
-      <xmlColumnPr mapId="33" xpath="/Potions/Potion/Image_Small" xmlDataType="string"/>
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="30">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="29">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Item_Class" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="28">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Class_Multiplier" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="27">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Stats_Low_Multiplier" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="26">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Stats_High_Multiplier" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="25">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="24">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Target" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="23">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Effect" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="22">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Mode" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="21">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/x" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="20">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/n" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="Image_Big" name="Image Big" dataDxfId="19">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Image_Big" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="Image_Small" name="Image Small" dataDxfId="18">
+      <xmlColumnPr mapId="37" xpath="/Potions/Potion/Image_Small" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3961,51 +3970,51 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N9" tableType="xml" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" connectionId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N9" tableType="xml" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" connectionId="35">
   <autoFilter ref="A1:N9"/>
   <tableColumns count="14">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="21">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="Class" name="Class" dataDxfId="20">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Class" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="19">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Class_Multiplier" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="9">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Stats_Low_Multiplier" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="8">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Stats_High_Multiplier" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="18">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Attack" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="17">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Speed" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="16">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Accuracy" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="15">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="13">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="12">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Item_Class" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="11">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Class_Multiplier" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="10">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Stats_Low_Multiplier" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="9">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Stats_High_Multiplier" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="8">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Attack" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="7">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Speed" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="6">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Accuracy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="5">
       <calculatedColumnFormula>"-"</calculatedColumnFormula>
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Defence" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="14">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Slots" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="13">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Max" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="12">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Type" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="Image_Big" name="Image Big" dataDxfId="11">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Image_Big" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="Image_Small" name="Image Small" dataDxfId="10">
-      <xmlColumnPr mapId="35" xpath="/Weapons/Weapon/Image_Small" xmlDataType="string"/>
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Defence" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="4">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Slots" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="3">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Max" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="2">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Type" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="Image_Big" name="Image Big" dataDxfId="1">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Image_Big" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="Image_Small" name="Image Small" dataDxfId="0">
+      <xmlColumnPr mapId="38" xpath="/Weapons/Weapon/Image_Small" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4354,24 +4363,24 @@
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="59" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="62"/>
       <c r="K1" s="56"/>
-      <c r="L1" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="M1" s="60"/>
-      <c r="N1" s="61"/>
+      <c r="L1" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
       <c r="O1" s="56"/>
       <c r="P1" s="56"/>
     </row>
@@ -4407,19 +4416,19 @@
         <v>83</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>124</v>
@@ -4472,7 +4481,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -4522,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -4572,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="P5" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -4622,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -4672,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -4722,31 +4731,31 @@
         <v>5</v>
       </c>
       <c r="P8" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
       <c r="K10" s="38"/>
-      <c r="L10" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
+      <c r="L10" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
       <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -4775,7 +4784,7 @@
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
       <c r="L12" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M12" s="39"/>
       <c r="N12" s="39"/>
@@ -4791,19 +4800,19 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
       <c r="L13" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M13" s="39"/>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G14" s="62" t="s">
+      <c r="G14" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
       <c r="M14" s="38"/>
@@ -4814,12 +4823,12 @@
       <c r="A15" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
       <c r="K15" s="38"/>
       <c r="L15" s="38"/>
       <c r="M15" s="38"/>
@@ -4827,12 +4836,12 @@
       <c r="O15" s="38"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
       <c r="K16" s="38"/>
       <c r="L16" s="38"/>
       <c r="M16" s="38"/>
@@ -4840,12 +4849,12 @@
       <c r="O16" s="38"/>
     </row>
     <row r="17" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G17" s="62" t="s">
+      <c r="G17" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="38"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -4853,12 +4862,12 @@
       <c r="O17" s="38"/>
     </row>
     <row r="18" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -4866,12 +4875,12 @@
       <c r="O18" s="38"/>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G20" s="62" t="s">
+      <c r="G20" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -4879,12 +4888,12 @@
       <c r="O20" s="38"/>
     </row>
     <row r="21" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
@@ -4897,12 +4906,12 @@
       </c>
     </row>
     <row r="24" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38"/>
@@ -4910,12 +4919,12 @@
       <c r="O24" s="38"/>
     </row>
     <row r="25" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G25" s="62" t="s">
+      <c r="G25" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
       <c r="M25" s="38"/>
@@ -4923,12 +4932,12 @@
       <c r="O25" s="38"/>
     </row>
     <row r="26" spans="7:15" x14ac:dyDescent="0.25">
-      <c r="G26" s="62" t="s">
+      <c r="G26" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
       <c r="M26" s="38"/>
@@ -4937,6 +4946,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="G25:J25"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:J10"/>
@@ -4948,11 +4962,6 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="G25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4986,10 +4995,10 @@
         <v>41</v>
       </c>
       <c r="B1" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>260</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>106</v>
@@ -5009,10 +5018,10 @@
         <v>102</v>
       </c>
       <c r="B2" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>262</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>263</v>
       </c>
       <c r="D2" s="44">
         <v>0.5</v>
@@ -5033,10 +5042,10 @@
         <v>103</v>
       </c>
       <c r="B3" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="42" t="s">
         <v>262</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>263</v>
       </c>
       <c r="D3" s="42">
         <v>0.7</v>
@@ -5056,10 +5065,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>262</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>263</v>
       </c>
       <c r="D4" s="42">
         <v>0.3</v>
@@ -5079,10 +5088,10 @@
         <v>105</v>
       </c>
       <c r="B5" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="42" t="s">
         <v>262</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>263</v>
       </c>
       <c r="D5" s="43">
         <v>0.4</v>
@@ -5158,10 +5167,10 @@
         <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>80</v>
@@ -5199,10 +5208,10 @@
         <v>81</v>
       </c>
       <c r="C2" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="E2" s="29">
         <v>20</v>
@@ -5226,10 +5235,10 @@
         <v>4</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5240,10 +5249,10 @@
         <v>81</v>
       </c>
       <c r="C3" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>262</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>263</v>
       </c>
       <c r="E3" s="30">
         <v>25</v>
@@ -5267,10 +5276,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5281,10 +5290,10 @@
         <v>81</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="E4" s="30">
         <v>15</v>
@@ -5308,10 +5317,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5322,10 +5331,10 @@
         <v>81</v>
       </c>
       <c r="C5" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>262</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>263</v>
       </c>
       <c r="E5" s="30">
         <v>25</v>
@@ -5349,10 +5358,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5363,10 +5372,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="E6" s="30">
         <v>15</v>
@@ -5390,10 +5399,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5404,10 +5413,10 @@
         <v>82</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>262</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>263</v>
       </c>
       <c r="E7" s="30">
         <v>35</v>
@@ -5431,10 +5440,10 @@
         <v>5</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5445,10 +5454,10 @@
         <v>82</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="E8" s="30">
         <v>40</v>
@@ -5472,10 +5481,10 @@
         <v>7</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5486,10 +5495,10 @@
         <v>82</v>
       </c>
       <c r="C9" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>262</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>263</v>
       </c>
       <c r="E9" s="30">
         <v>45</v>
@@ -5513,10 +5522,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5527,10 +5536,10 @@
         <v>82</v>
       </c>
       <c r="C10" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="E10" s="30">
         <v>55</v>
@@ -5554,10 +5563,10 @@
         <v>10</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5568,10 +5577,10 @@
         <v>83</v>
       </c>
       <c r="C11" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>262</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>263</v>
       </c>
       <c r="E11" s="30">
         <v>60</v>
@@ -5595,10 +5604,10 @@
         <v>30</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5609,10 +5618,10 @@
         <v>83</v>
       </c>
       <c r="C12" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>262</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>263</v>
       </c>
       <c r="E12" s="30">
         <v>80</v>
@@ -5636,10 +5645,10 @@
         <v>30</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5650,10 +5659,10 @@
         <v>83</v>
       </c>
       <c r="C13" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="34" t="s">
         <v>262</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>263</v>
       </c>
       <c r="E13" s="31">
         <v>70</v>
@@ -5677,10 +5686,10 @@
         <v>30</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5726,14 +5735,14 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L26" sqref="L26"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
@@ -5750,16 +5759,16 @@
         <v>41</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>78</v>
@@ -5785,10 +5794,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="17">
         <v>0.8</v>
@@ -5811,10 +5820,10 @@
         <v>0.1</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5822,10 +5831,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="13">
         <v>0.8</v>
@@ -5846,10 +5855,10 @@
         <v>0.1</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5857,10 +5866,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="17">
         <v>0.8</v>
@@ -5883,10 +5892,10 @@
         <v>0.1</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5894,10 +5903,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="13">
         <v>0.8</v>
@@ -5920,10 +5929,10 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5931,10 +5940,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="17">
         <v>0.8</v>
@@ -5957,10 +5966,10 @@
         <v>0.1</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5968,10 +5977,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="13">
         <v>0.8</v>
@@ -5994,10 +6003,10 @@
         <v>0.15</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6005,10 +6014,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="17">
         <v>0.8</v>
@@ -6029,10 +6038,10 @@
         <v>0.15</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6040,10 +6049,10 @@
         <v>68</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="13">
         <v>0.8</v>
@@ -6066,10 +6075,10 @@
         <v>0.15</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6077,10 +6086,10 @@
         <v>69</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="17">
         <v>0.8</v>
@@ -6103,10 +6112,10 @@
         <v>0.15</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6114,10 +6123,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="13">
         <v>0.8</v>
@@ -6140,10 +6149,10 @@
         <v>0.15</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6151,10 +6160,10 @@
         <v>72</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="17">
         <v>0.8</v>
@@ -6177,10 +6186,10 @@
         <v>0.2</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6188,10 +6197,10 @@
         <v>73</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13" s="13">
         <v>0.8</v>
@@ -6212,10 +6221,10 @@
         <v>0.2</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6223,10 +6232,10 @@
         <v>74</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="17">
         <v>0.8</v>
@@ -6249,10 +6258,10 @@
         <v>0.2</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6260,10 +6269,10 @@
         <v>75</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D15" s="13">
         <v>0.8</v>
@@ -6286,10 +6295,10 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6297,10 +6306,10 @@
         <v>76</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="17">
         <v>0.8</v>
@@ -6323,15 +6332,15 @@
         <v>0.2</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
         <v>79</v>
@@ -6351,14 +6360,14 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P15" sqref="P15"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" customWidth="1"/>
@@ -6377,16 +6386,16 @@
         <v>41</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>40</v>
@@ -6418,10 +6427,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="17">
         <v>0.8</v>
@@ -6449,10 +6458,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6460,10 +6469,10 @@
         <v>21</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="13">
         <v>0.8</v>
@@ -6491,10 +6500,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6502,10 +6511,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="17">
         <v>0.8</v>
@@ -6532,10 +6541,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6543,10 +6552,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="13">
         <v>0.8</v>
@@ -6573,10 +6582,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6584,10 +6593,10 @@
         <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="17">
         <v>0.8</v>
@@ -6614,10 +6623,10 @@
         <v>5</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6625,10 +6634,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="13">
         <v>0.8</v>
@@ -6655,10 +6664,10 @@
         <v>5</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6666,10 +6675,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="17">
         <v>0.8</v>
@@ -6696,10 +6705,10 @@
         <v>5</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6707,10 +6716,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="13">
         <v>0.8</v>
@@ -6737,10 +6746,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -6748,10 +6757,10 @@
         <v>28</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="17">
         <v>0.8</v>
@@ -6779,10 +6788,10 @@
         <v>5</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -6790,10 +6799,10 @@
         <v>27</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="13">
         <v>0.8</v>
@@ -6820,15 +6829,15 @@
         <v>5</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6844,13 +6853,14 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
@@ -6868,16 +6878,16 @@
         <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D1" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>260</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>261</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>51</v>
@@ -6915,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" s="17">
         <v>0.8</v>
@@ -6946,10 +6956,10 @@
         <v>56</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -6957,10 +6967,10 @@
         <v>45</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="17">
         <v>0.8</v>
@@ -6991,10 +7001,10 @@
         <v>56</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7002,10 +7012,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="17">
         <v>0.8</v>
@@ -7036,10 +7046,10 @@
         <v>56</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7047,10 +7057,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="17">
         <v>0.8</v>
@@ -7081,10 +7091,10 @@
         <v>56</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7092,10 +7102,10 @@
         <v>47</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D6" s="17">
         <v>0.8</v>
@@ -7128,10 +7138,10 @@
         <v>58</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7139,10 +7149,10 @@
         <v>48</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D7" s="17">
         <v>0.8</v>
@@ -7173,10 +7183,10 @@
         <v>56</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7184,10 +7194,10 @@
         <v>49</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" s="17">
         <v>0.8</v>
@@ -7218,10 +7228,10 @@
         <v>57</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7229,10 +7239,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D9" s="17">
         <v>0.8</v>
@@ -7263,15 +7273,15 @@
         <v>57</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="8565" windowHeight="9420" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="8565" windowHeight="9420" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="261">
   <si>
     <t>Axt</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>two-hand</t>
-  </si>
-  <si>
-    <t>single-hand, max. 1</t>
   </si>
   <si>
     <t>leather</t>
@@ -1460,17 +1457,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4495,7 +4492,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -4536,21 +4533,21 @@
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="78" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="78" t="s">
-        <v>121</v>
-      </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="C1" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="K1" s="29"/>
       <c r="L1" s="81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M1" s="82"/>
       <c r="N1" s="82"/>
@@ -4566,57 +4563,57 @@
         <v>39</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>130</v>
-      </c>
       <c r="G2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" s="39" t="s">
         <v>122</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q2" s="39" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="26">
         <v>1</v>
@@ -4661,15 +4658,15 @@
         <v>3</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
@@ -4714,15 +4711,15 @@
         <v>2</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="26">
         <v>1</v>
@@ -4767,15 +4764,15 @@
         <v>2</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="26">
         <v>1</v>
@@ -4820,15 +4817,15 @@
         <v>1</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="26">
         <v>1</v>
@@ -4873,15 +4870,15 @@
         <v>1</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" s="26">
         <v>1</v>
@@ -4926,37 +4923,37 @@
         <v>5</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="31"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
+      <c r="M10" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -4971,10 +4968,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -4982,7 +4979,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="34"/>
@@ -4990,7 +4987,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -4999,19 +4996,19 @@
       <c r="K13" s="28"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
+      <c r="G14" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="31"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -5021,14 +5018,14 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+        <v>145</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="31"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
@@ -5037,12 +5034,12 @@
       <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G16" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
+      <c r="G16" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="31"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
@@ -5051,12 +5048,12 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="G17" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
       <c r="K17" s="31"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -5065,12 +5062,12 @@
       <c r="P17" s="33"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="77" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="G18" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="31"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
@@ -5079,12 +5076,12 @@
       <c r="P18" s="33"/>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
+      <c r="G20" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="31"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
@@ -5093,12 +5090,12 @@
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G21" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
+      <c r="G21" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
       <c r="K21" s="31"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -5108,16 +5105,16 @@
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
+      <c r="G24" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="31"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -5126,12 +5123,12 @@
       <c r="P24" s="33"/>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="77" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
+      <c r="G25" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="31"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -5140,12 +5137,12 @@
       <c r="P25" s="33"/>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
+      <c r="G26" s="80" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="31"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -5155,11 +5152,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="L1:O1"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:J10"/>
@@ -5171,6 +5163,11 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5205,16 +5202,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>258</v>
-      </c>
       <c r="D1" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>105</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>106</v>
       </c>
       <c r="F1" s="48" t="s">
         <v>16</v>
@@ -5225,7 +5222,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="44">
         <v>0.8</v>
@@ -5248,7 +5245,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="44">
         <v>0.8</v>
@@ -5271,7 +5268,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="44">
         <v>0.8</v>
@@ -5294,7 +5291,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="44">
         <v>0.8</v>
@@ -5317,7 +5314,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -5327,7 +5324,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -5373,16 +5370,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>258</v>
-      </c>
       <c r="E1" s="57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>22</v>
@@ -5394,27 +5391,27 @@
         <v>24</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J1" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="K1" s="61" t="s">
-        <v>99</v>
-      </c>
       <c r="L1" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="55">
         <v>0.8</v>
@@ -5444,18 +5441,18 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="55">
         <v>0.8</v>
@@ -5485,18 +5482,18 @@
         <v>2</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="55">
         <v>0.8</v>
@@ -5526,18 +5523,18 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="55">
         <v>0.8</v>
@@ -5567,10 +5564,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5578,7 +5575,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="55">
         <v>0.8</v>
@@ -5608,10 +5605,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5619,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="55">
         <v>0.8</v>
@@ -5649,10 +5646,10 @@
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5660,7 +5657,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="55">
         <v>0.8</v>
@@ -5690,18 +5687,18 @@
         <v>7</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="55">
         <v>0.8</v>
@@ -5731,10 +5728,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5742,7 +5739,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="55">
         <v>0.8</v>
@@ -5772,18 +5769,18 @@
         <v>10</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="55">
         <v>0.8</v>
@@ -5813,18 +5810,18 @@
         <v>30</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="55">
         <v>0.8</v>
@@ -5854,18 +5851,18 @@
         <v>30</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="55">
         <v>0.8</v>
@@ -5895,38 +5892,38 @@
         <v>30</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="52" t="s">
         <v>83</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>84</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>85</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>86</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>87</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>88</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
@@ -5968,19 +5965,19 @@
         <v>40</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="63" t="s">
-        <v>258</v>
-      </c>
       <c r="F1" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>23</v>
@@ -5989,21 +5986,21 @@
         <v>52</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J1" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -6023,24 +6020,24 @@
         <v>13.333333333333334</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="64">
         <v>0.1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="65">
         <v>1</v>
@@ -6058,24 +6055,24 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I3" s="65">
         <v>0.1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -6095,24 +6092,24 @@
         <v>6.666666666666667</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="65">
         <v>0.1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="65">
         <v>1</v>
@@ -6132,24 +6129,24 @@
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="65">
         <v>0.1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -6169,24 +6166,24 @@
         <v>6.666666666666667</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="65">
         <v>0.1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="65">
         <v>1</v>
@@ -6206,24 +6203,24 @@
         <v>16.666666666666668</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="65">
         <v>0.15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -6241,24 +6238,24 @@
         <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="65">
         <v>0.15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="65">
         <v>1</v>
@@ -6278,24 +6275,24 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="65">
         <v>0.15</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -6315,24 +6312,24 @@
         <v>12.5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="65">
         <v>0.15</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
@@ -6352,24 +6349,24 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I11" s="65">
         <v>0.15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -6389,24 +6386,24 @@
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I12" s="65">
         <v>0.2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="65">
         <v>1</v>
@@ -6424,24 +6421,24 @@
         <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="65">
         <v>0.2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -6461,24 +6458,24 @@
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I14" s="65">
         <v>0.2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="65">
         <v>1</v>
@@ -6498,24 +6495,24 @@
         <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="65">
         <v>0.2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="64">
         <v>1</v>
@@ -6535,24 +6532,24 @@
         <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="66">
         <v>0.2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -6568,8 +6565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -6595,16 +6592,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>257</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>258</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>39</v>
@@ -6625,10 +6622,10 @@
         <v>6</v>
       </c>
       <c r="L1" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -6636,7 +6633,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -6667,10 +6664,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6678,7 +6675,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="65">
         <v>1</v>
@@ -6709,10 +6706,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6720,7 +6717,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -6750,10 +6747,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6761,7 +6758,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="65">
         <v>1</v>
@@ -6791,10 +6788,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6802,7 +6799,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -6832,10 +6829,10 @@
         <v>5</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6843,7 +6840,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="65">
         <v>1</v>
@@ -6873,10 +6870,10 @@
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6884,7 +6881,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -6914,10 +6911,10 @@
         <v>5</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6925,7 +6922,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="65">
         <v>1</v>
@@ -6955,10 +6952,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -6966,7 +6963,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -6997,10 +6994,10 @@
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -7008,7 +7005,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
@@ -7038,15 +7035,15 @@
         <v>5</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -7061,9 +7058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7087,16 +7084,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D1" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>257</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>258</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>50</v>
@@ -7120,10 +7117,10 @@
         <v>52</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>124</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -7164,10 +7161,10 @@
         <v>55</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7175,7 +7172,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -7208,10 +7205,10 @@
         <v>55</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7219,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -7252,10 +7249,10 @@
         <v>55</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7263,7 +7260,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -7296,10 +7293,10 @@
         <v>55</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7307,7 +7304,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -7337,13 +7334,13 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7351,7 +7348,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -7384,10 +7381,10 @@
         <v>55</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7395,7 +7392,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -7428,10 +7425,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7439,7 +7436,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -7472,15 +7469,15 @@
         <v>56</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="8565" windowHeight="9420" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="9975" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Weapons" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <oleSize ref="A1:F22"/>
 </workbook>
 </file>
 
@@ -1457,6 +1458,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1465,9 +1469,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4504,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -4533,18 +4534,18 @@
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="77" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="29"/>
       <c r="L1" s="81" t="s">
         <v>154</v>
@@ -4930,25 +4931,25 @@
       <c r="A10" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="31"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
       <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5003,12 +5004,12 @@
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="31"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -5020,12 +5021,12 @@
       <c r="A15" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="31"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
@@ -5034,12 +5035,12 @@
       <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="31"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
@@ -5048,12 +5049,12 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="31"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -5062,12 +5063,12 @@
       <c r="P17" s="33"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="80" t="s">
+      <c r="G18" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
       <c r="K18" s="31"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
@@ -5076,12 +5077,12 @@
       <c r="P18" s="33"/>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="80" t="s">
+      <c r="G20" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="31"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
@@ -5090,12 +5091,12 @@
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G21" s="80" t="s">
+      <c r="G21" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="31"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -5109,12 +5110,12 @@
       </c>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="80" t="s">
+      <c r="G24" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="31"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -5123,12 +5124,12 @@
       <c r="P24" s="33"/>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="80" t="s">
+      <c r="G25" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
       <c r="K25" s="31"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -5137,12 +5138,12 @@
       <c r="P25" s="33"/>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="31"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -5152,6 +5153,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:J10"/>
@@ -5163,11 +5169,6 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5182,8 +5183,8 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5240,7 +5241,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5263,7 +5264,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="45">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5286,7 +5287,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="45">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5309,7 +5310,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="46">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5345,7 +5346,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I15" sqref="I15"/>
+      <selection pane="topRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7058,8 +7059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="9975" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Weapons" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:F22"/>
+  <oleSize ref="A1:E27"/>
 </workbook>
 </file>
 
@@ -1458,17 +1458,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4505,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -4534,18 +4534,18 @@
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="78" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="K1" s="29"/>
       <c r="L1" s="81" t="s">
         <v>154</v>
@@ -4931,25 +4931,25 @@
       <c r="A10" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="31"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="77" t="s">
+      <c r="M10" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -5004,12 +5004,12 @@
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="31"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -5021,12 +5021,12 @@
       <c r="A15" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="31"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
@@ -5035,12 +5035,12 @@
       <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G16" s="77" t="s">
+      <c r="G16" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="31"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
@@ -5049,12 +5049,12 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="77" t="s">
+      <c r="G17" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
       <c r="K17" s="31"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -5063,12 +5063,12 @@
       <c r="P17" s="33"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="31"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
@@ -5077,12 +5077,12 @@
       <c r="P18" s="33"/>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="77" t="s">
+      <c r="G20" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="31"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
@@ -5091,12 +5091,12 @@
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
       <c r="K21" s="31"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -5110,12 +5110,12 @@
       </c>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="77" t="s">
+      <c r="G24" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="31"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -5124,12 +5124,12 @@
       <c r="P24" s="33"/>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="77" t="s">
+      <c r="G25" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="31"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -5138,12 +5138,12 @@
       <c r="P25" s="33"/>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
       <c r="K26" s="31"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -5153,11 +5153,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="L1:O1"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:J10"/>
@@ -5169,6 +5164,11 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5941,7 +5941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
@@ -7060,7 +7060,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="Weapons" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <oleSize ref="A1:E27"/>
 </workbook>
 </file>
 
@@ -203,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="256">
   <si>
     <t>Axt</t>
   </si>
@@ -685,24 +684,6 @@
     <t>Item_Count</t>
   </si>
   <si>
-    <t>rooms/deadend.png</t>
-  </si>
-  <si>
-    <t>rooms/hallway.png</t>
-  </si>
-  <si>
-    <t>rooms/turn.png</t>
-  </si>
-  <si>
-    <t>rooms/t-junction.png</t>
-  </si>
-  <si>
-    <t>rooms/junction.png</t>
-  </si>
-  <si>
-    <t>rooms/treasure_chamber.png</t>
-  </si>
-  <si>
     <t>monsters/rat_big.png</t>
   </si>
   <si>
@@ -986,6 +967,9 @@
   </si>
   <si>
     <t>Bitte in Excel die Kommetrennzeichen auf "." stellen!!! (google)</t>
+  </si>
+  <si>
+    <t>rooms/tileset.png</t>
   </si>
 </sst>
 </file>
@@ -4493,7 +4477,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4505,9 +4489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,7 +4575,7 @@
         <v>158</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M2" s="32" t="s">
         <v>149</v>
@@ -4659,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>160</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4712,7 +4696,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>161</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4765,7 +4749,7 @@
         <v>2</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>162</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4818,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>163</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4871,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4924,7 +4908,7 @@
         <v>5</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -5203,10 +5187,10 @@
         <v>40</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>104</v>
@@ -5374,10 +5358,10 @@
         <v>96</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E1" s="57" t="s">
         <v>78</v>
@@ -5442,10 +5426,10 @@
         <v>4</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5483,10 +5467,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5524,10 +5508,10 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,10 +5549,10 @@
         <v>2</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5606,10 +5590,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5647,10 +5631,10 @@
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5688,10 +5672,10 @@
         <v>7</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5729,10 +5713,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5770,10 +5754,10 @@
         <v>10</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5811,10 +5795,10 @@
         <v>30</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,10 +5836,10 @@
         <v>30</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5893,10 +5877,10 @@
         <v>30</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5941,8 +5925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -5966,16 +5950,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C1" s="63" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>76</v>
@@ -6027,10 +6011,10 @@
         <v>0.1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6062,10 +6046,10 @@
         <v>0.1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6099,10 +6083,10 @@
         <v>0.1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6136,10 +6120,10 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6173,10 +6157,10 @@
         <v>0.1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6210,10 +6194,10 @@
         <v>0.15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6245,10 +6229,10 @@
         <v>0.15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6282,10 +6266,10 @@
         <v>0.15</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6319,10 +6303,10 @@
         <v>0.15</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6356,10 +6340,10 @@
         <v>0.15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6393,10 +6377,10 @@
         <v>0.2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6428,10 +6412,10 @@
         <v>0.2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6465,10 +6449,10 @@
         <v>0.2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6502,10 +6486,10 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6539,10 +6523,10 @@
         <v>0.2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
@@ -6593,16 +6577,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C1" s="63" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>39</v>
@@ -6665,10 +6649,10 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6707,10 +6691,10 @@
         <v>5</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -6748,10 +6732,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6789,10 +6773,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6830,10 +6814,10 @@
         <v>5</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -6871,10 +6855,10 @@
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -6912,10 +6896,10 @@
         <v>5</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6953,10 +6937,10 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -6995,10 +6979,10 @@
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -7036,10 +7020,10 @@
         <v>5</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -7085,16 +7069,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>152</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>50</v>
@@ -7162,10 +7146,10 @@
         <v>55</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -7206,10 +7190,10 @@
         <v>55</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7250,10 +7234,10 @@
         <v>55</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7294,10 +7278,10 @@
         <v>55</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7338,10 +7322,10 @@
         <v>55</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7382,10 +7366,10 @@
         <v>55</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7426,10 +7410,10 @@
         <v>56</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7470,10 +7454,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -27,182 +27,203 @@
   <connection id="2" name="D_Armaments1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="D_Armaments2" type="4" refreshedVersion="0" background="1">
+  <connection id="3" name="D_Armaments10" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" name="D_Armaments2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="D_Armaments3" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="D_Armaments3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="D_Armaments4" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="D_Armaments4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="D_Armaments5" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="D_Armaments5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="D_Armaments6" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="D_Armaments6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="D_Armaments7" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="D_Armaments7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="D_Armaments8" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="D_Armaments8" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="D_Armaments9" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="D_Armaments9" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Armaments.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="D_Attacks" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="D_Attacks" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="12" name="D_Attacks1" type="4" refreshedVersion="0" background="1">
+  <connection id="13" name="D_Attacks1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="13" name="D_Attacks2" type="4" refreshedVersion="0" background="1">
+  <connection id="14" name="D_Attacks2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="14" name="D_Attacks3" type="4" refreshedVersion="0" background="1">
+  <connection id="15" name="D_Attacks3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="15" name="D_Attacks4" type="4" refreshedVersion="0" background="1">
+  <connection id="16" name="D_Attacks4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="16" name="D_Attacks5" type="4" refreshedVersion="0" background="1">
+  <connection id="17" name="D_Attacks5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="17" name="D_Monsters" type="4" refreshedVersion="0" background="1">
+  <connection id="18" name="D_Attacks6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Attacks.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="19" name="D_Monsters" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="18" name="D_Monsters1" type="4" refreshedVersion="0" background="1">
+  <connection id="20" name="D_Monsters1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="19" name="D_Monsters2" type="4" refreshedVersion="0" background="1">
+  <connection id="21" name="D_Monsters10" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="22" name="D_Monsters2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="20" name="D_Monsters3" type="4" refreshedVersion="0" background="1">
+  <connection id="23" name="D_Monsters3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="21" name="D_Monsters4" type="4" refreshedVersion="0" background="1">
+  <connection id="24" name="D_Monsters4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="22" name="D_Monsters5" type="4" refreshedVersion="0" background="1">
+  <connection id="25" name="D_Monsters5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="23" name="D_Monsters6" type="4" refreshedVersion="0" background="1">
+  <connection id="26" name="D_Monsters6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="24" name="D_Monsters7" type="4" refreshedVersion="0" background="1">
+  <connection id="27" name="D_Monsters7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="25" name="D_Monsters8" type="4" refreshedVersion="0" background="1">
+  <connection id="28" name="D_Monsters8" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="26" name="D_Potions" type="4" refreshedVersion="0" background="1">
+  <connection id="29" name="D_Monsters9" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Monsters.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="30" name="D_Potions" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="27" name="D_Potions1" type="4" refreshedVersion="0" background="1">
+  <connection id="31" name="D_Potions1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="28" name="D_Potions2" type="4" refreshedVersion="0" background="1">
+  <connection id="32" name="D_Potions10" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="33" name="D_Potions2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="29" name="D_Potions3" type="4" refreshedVersion="0" background="1">
+  <connection id="34" name="D_Potions3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="30" name="D_Potions4" type="4" refreshedVersion="0" background="1">
+  <connection id="35" name="D_Potions4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="31" name="D_Potions5" type="4" refreshedVersion="0" background="1">
+  <connection id="36" name="D_Potions5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="32" name="D_Potions6" type="4" refreshedVersion="0" background="1">
+  <connection id="37" name="D_Potions6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="33" name="D_Potions7" type="4" refreshedVersion="0" background="1">
+  <connection id="38" name="D_Potions7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="34" name="D_Potions8" type="4" refreshedVersion="0" background="1">
+  <connection id="39" name="D_Potions8" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="35" name="D_Potions9" type="4" refreshedVersion="0" background="1">
+  <connection id="40" name="D_Potions9" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="36" name="D_Rooms" type="4" refreshedVersion="0" background="1">
+  <connection id="41" name="D_Rooms" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="37" name="D_Rooms_test" type="4" refreshedVersion="0" background="1">
+  <connection id="42" name="D_Rooms_test" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms_test.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="38" name="D_Rooms1" type="4" refreshedVersion="0" background="1">
+  <connection id="43" name="D_Rooms1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="39" name="D_Rooms2" type="4" refreshedVersion="0" background="1">
+  <connection id="44" name="D_Rooms2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="40" name="D_Rooms3" type="4" refreshedVersion="0" background="1">
+  <connection id="45" name="D_Rooms3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="41" name="D_Rooms4" type="4" refreshedVersion="0" background="1">
+  <connection id="46" name="D_Rooms4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="42" name="D_Rooms5" type="4" refreshedVersion="0" background="1">
+  <connection id="47" name="D_Rooms5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="43" name="D_Rooms6" type="4" refreshedVersion="0" background="1">
+  <connection id="48" name="D_Rooms6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="44" name="D_Rooms7" type="4" refreshedVersion="0" background="1">
+  <connection id="49" name="D_Rooms7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="45" name="D_text" type="4" refreshedVersion="0" background="1">
+  <connection id="50" name="D_text" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="46" name="D_text1" type="4" refreshedVersion="0" background="1">
+  <connection id="51" name="D_text1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="47" name="D_text2" type="4" refreshedVersion="0" background="1">
+  <connection id="52" name="D_text2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="48" name="D_Weapons" type="4" refreshedVersion="0" background="1">
+  <connection id="53" name="D_Weapons" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="49" name="D_Weapons1" type="4" refreshedVersion="0" background="1">
+  <connection id="54" name="D_Weapons1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="50" name="D_Weapons10" type="4" refreshedVersion="0" background="1">
+  <connection id="55" name="D_Weapons10" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="51" name="D_Weapons2" type="4" refreshedVersion="0" background="1">
+  <connection id="56" name="D_Weapons11" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="57" name="D_Weapons2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="52" name="D_Weapons3" type="4" refreshedVersion="0" background="1">
+  <connection id="58" name="D_Weapons3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="53" name="D_Weapons4" type="4" refreshedVersion="0" background="1">
+  <connection id="59" name="D_Weapons4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="54" name="D_Weapons5" type="4" refreshedVersion="0" background="1">
+  <connection id="60" name="D_Weapons5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="55" name="D_Weapons6" type="4" refreshedVersion="0" background="1">
+  <connection id="61" name="D_Weapons6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="56" name="D_Weapons7" type="4" refreshedVersion="0" background="1">
+  <connection id="62" name="D_Weapons7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="57" name="D_Weapons8" type="4" refreshedVersion="0" background="1">
+  <connection id="63" name="D_Weapons8" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="58" name="D_Weapons9" type="4" refreshedVersion="0" background="1">
+  <connection id="64" name="D_Weapons9" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="59" name="Schema_Potions" type="4" refreshedVersion="0" background="1">
+  <connection id="65" name="Monsters" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Results\Monsters.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="66" name="Schema_Potions" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Schema_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="209">
   <si>
     <t>Axt</t>
   </si>
@@ -573,12 +594,6 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Image Big</t>
-  </si>
-  <si>
-    <t>Image Small</t>
-  </si>
-  <si>
     <t>Door Positions</t>
   </si>
   <si>
@@ -684,276 +699,6 @@
     <t>Item_Count</t>
   </si>
   <si>
-    <t>monsters/rat_big.png</t>
-  </si>
-  <si>
-    <t>monsters/spider_big.png</t>
-  </si>
-  <si>
-    <t>monsters/frog_big.png</t>
-  </si>
-  <si>
-    <t>monsters/bat_big.png</t>
-  </si>
-  <si>
-    <t>monsters/salamander_big.png</t>
-  </si>
-  <si>
-    <t>monsters/goblin_big.png</t>
-  </si>
-  <si>
-    <t>monsters/gremlin_big.png</t>
-  </si>
-  <si>
-    <t>monsters/ghost_big.png</t>
-  </si>
-  <si>
-    <t>monsters/zombie_big.png</t>
-  </si>
-  <si>
-    <t>monsters/ogre_big.png</t>
-  </si>
-  <si>
-    <t>monsters/giant_big.png</t>
-  </si>
-  <si>
-    <t>monsters/cyclops_big.png</t>
-  </si>
-  <si>
-    <t>monsters/rat_small.png</t>
-  </si>
-  <si>
-    <t>monsters/spider_small.png</t>
-  </si>
-  <si>
-    <t>monsters/frog_small.png</t>
-  </si>
-  <si>
-    <t>monsters/bat_small.png</t>
-  </si>
-  <si>
-    <t>monsters/salamander_small.png</t>
-  </si>
-  <si>
-    <t>monsters/goblin_small.png</t>
-  </si>
-  <si>
-    <t>monsters/gremlin_small.png</t>
-  </si>
-  <si>
-    <t>monsters/ghost_small.png</t>
-  </si>
-  <si>
-    <t>monsters/zombie_small.png</t>
-  </si>
-  <si>
-    <t>monsters/ogre_small.png</t>
-  </si>
-  <si>
-    <t>monsters/giant_small.png</t>
-  </si>
-  <si>
-    <t>monsters/cyclops_small.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_helmet_big.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_harness_big.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_gauntlets_big.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_cuisse_big.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_boots_big.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_helmet_big.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_harness_big.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_gauntlets_big.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_cuisse_big.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_boots_big.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_helmet_big.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_harness_big.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_gauntlets_big.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_cuisse_big.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_boots_big.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_helmet_small.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_harness_small.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_gauntlets_small.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_cuisse_small.png</t>
-  </si>
-  <si>
-    <t>armaments/leather_boots_small.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_helmet_small.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_harness_small.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_gauntlets_small.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_cuisse_small.png</t>
-  </si>
-  <si>
-    <t>armaments/habergeon_boots_small.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_helmet_small.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_harness_small.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_gauntlets_small.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_cuisse_small.png</t>
-  </si>
-  <si>
-    <t>armaments/plate_boots_small.png</t>
-  </si>
-  <si>
-    <t>potions/instant_cure_big.png</t>
-  </si>
-  <si>
-    <t>potions/regeneration_big.png</t>
-  </si>
-  <si>
-    <t>potions/antidote_big.png</t>
-  </si>
-  <si>
-    <t>potions/strength_big.png</t>
-  </si>
-  <si>
-    <t>potions/speed_big.png</t>
-  </si>
-  <si>
-    <t>potions/accuracy_big.png</t>
-  </si>
-  <si>
-    <t>potions/blindness_big.png</t>
-  </si>
-  <si>
-    <t>potions/slowness_big.png</t>
-  </si>
-  <si>
-    <t>potions/poison_big.png</t>
-  </si>
-  <si>
-    <t>potions/weakness_big.png</t>
-  </si>
-  <si>
-    <t>potions/instant_cure_small.png</t>
-  </si>
-  <si>
-    <t>potions/regeneration_small.png</t>
-  </si>
-  <si>
-    <t>potions/antidote_small.png</t>
-  </si>
-  <si>
-    <t>potions/strength_small.png</t>
-  </si>
-  <si>
-    <t>potions/speed_small.png</t>
-  </si>
-  <si>
-    <t>potions/accuracy_small.png</t>
-  </si>
-  <si>
-    <t>potions/blindness_small.png</t>
-  </si>
-  <si>
-    <t>potions/slowness_small.png</t>
-  </si>
-  <si>
-    <t>potions/poison_small.png</t>
-  </si>
-  <si>
-    <t>potions/weakness_small.png</t>
-  </si>
-  <si>
-    <t>weapons/fists_big.png</t>
-  </si>
-  <si>
-    <t>weapons/dagger_big.png</t>
-  </si>
-  <si>
-    <t>weapons/axt_big.png</t>
-  </si>
-  <si>
-    <t>weapons/sword_big.png</t>
-  </si>
-  <si>
-    <t>weapons/shield_big.png</t>
-  </si>
-  <si>
-    <t>weapons/sabre_big.png</t>
-  </si>
-  <si>
-    <t>weapons/longsword_big.png</t>
-  </si>
-  <si>
-    <t>weapons/bow_big.png</t>
-  </si>
-  <si>
-    <t>weapons/fists_small.png</t>
-  </si>
-  <si>
-    <t>weapons/dagger_small.png</t>
-  </si>
-  <si>
-    <t>weapons/axt_small.png</t>
-  </si>
-  <si>
-    <t>weapons/sword_small.png</t>
-  </si>
-  <si>
-    <t>weapons/shield_small.png</t>
-  </si>
-  <si>
-    <t>weapons/sabre_small.png</t>
-  </si>
-  <si>
-    <t>weapons/longsword_small.png</t>
-  </si>
-  <si>
-    <t>weapons/bow_small.png</t>
-  </si>
-  <si>
     <t>Stats Low Multiplier</t>
   </si>
   <si>
@@ -970,6 +715,141 @@
   </si>
   <si>
     <t>rooms/tileset.png</t>
+  </si>
+  <si>
+    <t>monsters/rat.png</t>
+  </si>
+  <si>
+    <t>monsters/spider.png</t>
+  </si>
+  <si>
+    <t>monsters/frog.png</t>
+  </si>
+  <si>
+    <t>monsters/bat.png</t>
+  </si>
+  <si>
+    <t>monsters/salamander.png</t>
+  </si>
+  <si>
+    <t>monsters/goblin.png</t>
+  </si>
+  <si>
+    <t>monsters/gremlin.png</t>
+  </si>
+  <si>
+    <t>monsters/ghost.png</t>
+  </si>
+  <si>
+    <t>monsters/zombie.png</t>
+  </si>
+  <si>
+    <t>monsters/ogre.png</t>
+  </si>
+  <si>
+    <t>monsters/giant.png</t>
+  </si>
+  <si>
+    <t>monsters/cyclops.png</t>
+  </si>
+  <si>
+    <t>armaments/leather_helmet.png</t>
+  </si>
+  <si>
+    <t>armaments/leather_harness.png</t>
+  </si>
+  <si>
+    <t>armaments/leather_gauntlets.png</t>
+  </si>
+  <si>
+    <t>armaments/leather_cuisse.png</t>
+  </si>
+  <si>
+    <t>armaments/leather_boots.png</t>
+  </si>
+  <si>
+    <t>armaments/habergeon_helmet.png</t>
+  </si>
+  <si>
+    <t>armaments/habergeon_harness.png</t>
+  </si>
+  <si>
+    <t>armaments/habergeon_gauntlets.png</t>
+  </si>
+  <si>
+    <t>armaments/habergeon_cuisse.png</t>
+  </si>
+  <si>
+    <t>armaments/habergeon_boots.png</t>
+  </si>
+  <si>
+    <t>armaments/plate_helmet.png</t>
+  </si>
+  <si>
+    <t>armaments/plate_harness.png</t>
+  </si>
+  <si>
+    <t>armaments/plate_gauntlets.png</t>
+  </si>
+  <si>
+    <t>armaments/plate_cuisse.png</t>
+  </si>
+  <si>
+    <t>armaments/plate_boots.png</t>
+  </si>
+  <si>
+    <t>potions/instant_cure.png</t>
+  </si>
+  <si>
+    <t>potions/regeneration.png</t>
+  </si>
+  <si>
+    <t>potions/antidote.png</t>
+  </si>
+  <si>
+    <t>potions/strength.png</t>
+  </si>
+  <si>
+    <t>potions/speed.png</t>
+  </si>
+  <si>
+    <t>potions/accuracy.png</t>
+  </si>
+  <si>
+    <t>potions/blindness.png</t>
+  </si>
+  <si>
+    <t>potions/slowness.png</t>
+  </si>
+  <si>
+    <t>potions/poison.png</t>
+  </si>
+  <si>
+    <t>potions/weakness.png</t>
+  </si>
+  <si>
+    <t>weapons/fists.png</t>
+  </si>
+  <si>
+    <t>weapons/dagger.png</t>
+  </si>
+  <si>
+    <t>weapons/axt.png</t>
+  </si>
+  <si>
+    <t>weapons/sword.png</t>
+  </si>
+  <si>
+    <t>weapons/shield.png</t>
+  </si>
+  <si>
+    <t>weapons/sabre.png</t>
+  </si>
+  <si>
+    <t>weapons/longsword.png</t>
+  </si>
+  <si>
+    <t>weapons/bow.png</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,6 +1322,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1451,9 +1334,6 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,12 +1342,74 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="97">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1485,14 +1427,45 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1940,39 +1913,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2495,33 +2435,6 @@
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -2886,33 +2799,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -3458,64 +3344,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3731,7 +3559,60 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema33">
+  <Schema ID="Schema7">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Attacks">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Attack" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Class_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Stats_Low_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Stats_High_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="HP_Damage" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Hit_Probability" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Effect" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="x" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema10">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Monsters">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Monster" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Class_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Stats_Low_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Stats_High_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HP" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Strength" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Speed" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Accuracy" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Kill_Bonus_Type" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Kill_Bonus_Low" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Kill_Bonus_High" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Schema ID="Schema13">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Armaments">
         <xsd:complexType>
@@ -3748,8 +3629,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Speed" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Type" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Bonus" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -3758,59 +3638,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema34">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Attacks">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Attack" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Stats_Low_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Stats_High_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="HP_Damage" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Hit_Probability" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Effect" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="x" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Schema ID="Schema35">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Monsters">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Monster" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Level" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Stats_Low_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Stats_High_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HP" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Strength" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Speed" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Accuracy" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Kill_Bonus_Type" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Kill_Bonus_Low" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Kill_Bonus_High" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Schema ID="Schema36">
+  <Schema ID="Schema14">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Potions">
         <xsd:complexType>
@@ -3829,8 +3657,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Mode" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="x" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="n" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -3839,7 +3666,7 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Schema ID="Schema37">
+  <Schema ID="Schema15">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Weapons">
         <xsd:complexType>
@@ -3859,8 +3686,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Slots" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Max" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Type" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Big" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image_Small" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -3869,80 +3695,80 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="62" Name="Armaments_Map" RootElement="Armaments" SchemaID="Schema33" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="10" DataBindingLoadMode="1"/>
+  <Map ID="74" Name="Armaments_Map" RootElement="Armaments" SchemaID="Schema13" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="63" Name="Attacks_Map" RootElement="Attacks" SchemaID="Schema34" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="16" DataBindingLoadMode="1"/>
+  <Map ID="68" Name="Attacks_Map" RootElement="Attacks" SchemaID="Schema7" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="18" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="64" Name="Monsters_Map" RootElement="Monsters" SchemaID="Schema35" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="25" DataBindingLoadMode="1"/>
+  <Map ID="71" Name="Monsters_Map" RootElement="Monsters" SchemaID="Schema10" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="21" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="65" Name="Potions_Map" RootElement="Potions" SchemaID="Schema36" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="35" DataBindingLoadMode="1"/>
+  <Map ID="75" Name="Potions_Map" RootElement="Potions" SchemaID="Schema14" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="32" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="60" Name="Rooms_Map" RootElement="Rooms" SchemaID="Schema31" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="44" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="49" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="66" Name="Weapons_Map" RootElement="Weapons" SchemaID="Schema37" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="50" DataBindingLoadMode="1"/>
+  <Map ID="76" Name="Weapons_Map" RootElement="Weapons" SchemaID="Schema15" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="56" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A2:Q8" tableType="xml" totalsRowShown="0" headerRowDxfId="98" headerRowBorderDxfId="97" connectionId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A2:Q8" tableType="xml" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" connectionId="49">
   <autoFilter ref="A2:Q8"/>
   <tableColumns count="17">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="96">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="94">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="95">
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="93">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="N" name="N" dataDxfId="94">
+    <tableColumn id="3" uniqueName="N" name="N" dataDxfId="92">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Door_Positions/N" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="E" name="E" dataDxfId="93">
+    <tableColumn id="4" uniqueName="E" name="E" dataDxfId="91">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Door_Positions/E" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="S" name="S" dataDxfId="92">
+    <tableColumn id="5" uniqueName="S" name="S" dataDxfId="90">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Door_Positions/S" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="W" name="W" dataDxfId="91">
+    <tableColumn id="6" uniqueName="W" name="W" dataDxfId="89">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Door_Positions/W" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="no" name="no" dataDxfId="90">
+    <tableColumn id="7" uniqueName="no" name="no" dataDxfId="88">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Monster/no" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="easy" name="easy" dataDxfId="89">
+    <tableColumn id="8" uniqueName="easy" name="easy" dataDxfId="87">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Monster/easy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="normal" name="normal" dataDxfId="88">
+    <tableColumn id="9" uniqueName="normal" name="normal" dataDxfId="86">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Monster/normal" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="hard" name="hard" dataDxfId="87">
+    <tableColumn id="10" uniqueName="hard" name="hard" dataDxfId="85">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Monster/hard" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Item_Multiplier" name="Item_Multiplier" dataDxfId="86">
+    <tableColumn id="11" uniqueName="Item_Multiplier" name="Item_Multiplier" dataDxfId="84">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Item_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="none" name="none" dataDxfId="85">
+    <tableColumn id="17" uniqueName="none" name="none" dataDxfId="83">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Find_Probabilities/none" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="weak" name="weak" dataDxfId="84">
+    <tableColumn id="12" uniqueName="weak" name="weak" dataDxfId="82">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Find_Probabilities/weak" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="medium" name="medium" dataDxfId="83">
+    <tableColumn id="13" uniqueName="medium" name="medium" dataDxfId="81">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Find_Probabilities/medium" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="strong" name="strong" dataDxfId="82">
+    <tableColumn id="14" uniqueName="strong" name="strong" dataDxfId="80">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Find_Probabilities/strong" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Item_Count" name="Item_Count" dataDxfId="81">
+    <tableColumn id="15" uniqueName="Item_Count" name="Item_Count" dataDxfId="79">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Item_Count" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="Image" name="Image" dataDxfId="80">
+    <tableColumn id="16" uniqueName="Image" name="Image" dataDxfId="78">
       <xmlColumnPr mapId="60" xpath="/Rooms/Room/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3951,29 +3777,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:G5" tableType="xml" totalsRowShown="0" headerRowDxfId="79" dataDxfId="77" headerRowBorderDxfId="78" tableBorderDxfId="76" connectionId="16">
-  <autoFilter ref="A1:G5"/>
-  <tableColumns count="7">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="75">
-      <xmlColumnPr mapId="63" xpath="/Attacks/Attack/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H5" tableType="xml" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" connectionId="18">
+  <autoFilter ref="A1:H5"/>
+  <tableColumns count="8">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="2">
+      <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="74">
-      <xmlColumnPr mapId="63" xpath="/Attacks/Attack/Stats_Low_Multiplier" xmlDataType="double"/>
+    <tableColumn id="8" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="0">
+      <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Class_Multiplier" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="1">
+      <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="73">
-      <xmlColumnPr mapId="63" xpath="/Attacks/Attack/Stats_High_Multiplier" xmlDataType="double"/>
+      <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="72">
-      <xmlColumnPr mapId="63" xpath="/Attacks/Attack/HP_Damage" xmlDataType="double"/>
+      <xmlColumnPr mapId="68" xpath="/Attacks/Attack/HP_Damage" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="71">
-      <xmlColumnPr mapId="63" xpath="/Attacks/Attack/Hit_Probability" xmlDataType="double"/>
+      <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Hit_Probability" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="70">
-      <xmlColumnPr mapId="63" xpath="/Attacks/Attack/Effect" xmlDataType="string"/>
+      <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Effect" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="x" name="x" dataDxfId="69">
-      <xmlColumnPr mapId="63" xpath="/Attacks/Attack/x" xmlDataType="double"/>
+      <xmlColumnPr mapId="68" xpath="/Attacks/Attack/x" xmlDataType="double"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3981,47 +3810,47 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" connectionId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" connectionId="21">
   <autoFilter ref="A1:M13"/>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="64">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Name" xmlDataType="string"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="63">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Level" xmlDataType="string"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Level" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="3">
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="62">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Stats_Low_Multiplier" xmlDataType="double"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="61">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Stats_High_Multiplier" xmlDataType="double"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="60">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/HP" xmlDataType="integer"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/HP" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="59">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Strength" xmlDataType="integer"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Strength" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="58">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Speed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Speed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="57">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Accuracy" xmlDataType="integer"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Accuracy" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="56">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Kill_Bonus_Type" xmlDataType="string"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_Type" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="55">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Kill_Bonus_Low" xmlDataType="integer"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_Low" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="54">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Kill_Bonus_High" xmlDataType="integer"/>
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_High" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Image_Big" name="Image Big" dataDxfId="53">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Image_Big" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="Image_Small" name="Image Small" dataDxfId="52">
-      <xmlColumnPr mapId="64" xpath="/Monsters/Monster/Image_Small" xmlDataType="string"/>
+    <tableColumn id="11" uniqueName="Image" name="Image" dataDxfId="53">
+      <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4029,41 +3858,38 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:K16" tableType="xml" totalsRowShown="0" headerRowDxfId="51" dataDxfId="49" headerRowBorderDxfId="50" tableBorderDxfId="48" totalsRowBorderDxfId="47" connectionId="10">
-  <autoFilter ref="A1:K16"/>
-  <tableColumns count="11">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="46">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:J16" tableType="xml" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48" connectionId="3">
+  <autoFilter ref="A1:J16"/>
+  <tableColumns count="10">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="47">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="45">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Item_Class" xmlDataType="string"/>
+    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="46">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="44">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Class_Multiplier" xmlDataType="double"/>
+    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="45">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="43">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Stats_Low_Multiplier" xmlDataType="double"/>
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="44">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="42">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Stats_High_Multiplier" xmlDataType="double"/>
+    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="43">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="41">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Armor" xmlDataType="integer"/>
+    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="42">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Armor" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="40">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Speed" xmlDataType="integer"/>
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="41">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="39">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Type" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="40">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="38">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Bonus" xmlDataType="double"/>
+    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="39">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Bonus" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Image_Big" name="Image Big" dataDxfId="37">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Image_Big" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="Image_Small" name="Image Small" dataDxfId="36">
-      <xmlColumnPr mapId="62" xpath="/Armaments/Armament/Image_Small" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="Image" name="Image" dataDxfId="38">
+      <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4071,47 +3897,44 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M11" tableType="xml" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31" connectionId="35">
-  <autoFilter ref="A1:M11"/>
-  <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="30">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L11" tableType="xml" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33" connectionId="32">
+  <autoFilter ref="A1:L11"/>
+  <tableColumns count="12">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="32">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="29">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Item_Class" xmlDataType="string"/>
+    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="31">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="28">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Class_Multiplier" xmlDataType="double"/>
+    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="30">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="27">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Stats_Low_Multiplier" xmlDataType="double"/>
+    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="29">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="26">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Stats_High_Multiplier" xmlDataType="double"/>
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="28">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="25">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Description" xmlDataType="string"/>
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="27">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="24">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Target" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="26">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="23">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Effect" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="25">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="22">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Mode" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="24">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Mode" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="21">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/x" xmlDataType="integer"/>
+    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="23">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/x" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="20">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/n" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="22">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/n" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Image_Big" name="Image Big" dataDxfId="19">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Image_Big" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="Image_Small" name="Image Small" dataDxfId="18">
-      <xmlColumnPr mapId="65" xpath="/Potions/Potion/Image_Small" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="Image" name="Image" dataDxfId="21">
+      <xmlColumnPr mapId="75" xpath="/Potions/Potion/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4119,51 +3942,48 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N9" tableType="xml" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" connectionId="50">
-  <autoFilter ref="A1:N9"/>
-  <tableColumns count="14">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="13">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Name" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M9" tableType="xml" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" connectionId="56">
+  <autoFilter ref="A1:M9"/>
+  <tableColumns count="13">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="16">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="12">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Item_Class" xmlDataType="string"/>
+    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="15">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="11">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Class_Multiplier" xmlDataType="double"/>
+    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="14">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="10">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Stats_Low_Multiplier" xmlDataType="double"/>
+    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="13">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="9">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Stats_High_Multiplier" xmlDataType="double"/>
+    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="12">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="8">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Attack" xmlDataType="integer"/>
+    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="11">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="7">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Speed" xmlDataType="integer"/>
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="10">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="6">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Accuracy" xmlDataType="integer"/>
+    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="9">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Accuracy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="5">
+    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="8">
       <calculatedColumnFormula>"-"</calculatedColumnFormula>
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Defence" xmlDataType="integer"/>
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Defence" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="4">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Slots" xmlDataType="integer"/>
+    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="7">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Slots" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="3">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Max" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="6">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Max" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="2">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Type" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="5">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Image_Big" name="Image Big" dataDxfId="1">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Image_Big" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="Image_Small" name="Image Small" dataDxfId="0">
-      <xmlColumnPr mapId="66" xpath="/Weapons/Weapon/Image_Small" xmlDataType="string"/>
+    <tableColumn id="9" uniqueName="Image" name="Image" dataDxfId="4">
+      <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4477,7 +4297,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4489,9 +4309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="topRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4518,21 +4338,21 @@
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="77" t="s">
+      <c r="C1" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="29"/>
       <c r="L1" s="81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M1" s="82"/>
       <c r="N1" s="82"/>
@@ -4548,16 +4368,16 @@
         <v>39</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>129</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>121</v>
@@ -4572,22 +4392,22 @@
         <v>81</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="M2" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="N2" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>151</v>
-      </c>
       <c r="P2" s="37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q2" s="39" t="s">
         <v>122</v>
@@ -4643,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -4696,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -4749,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -4802,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4855,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -4908,37 +4728,37 @@
         <v>5</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
+        <v>144</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="31"/>
       <c r="L10" s="33"/>
-      <c r="M10" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
+      <c r="M10" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
       <c r="P10" s="33"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -4953,10 +4773,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -4964,7 +4784,7 @@
       <c r="K12" s="28"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="34"/>
@@ -4972,7 +4792,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -4981,19 +4801,19 @@
       <c r="K13" s="28"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
+      <c r="G14" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="31"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -5003,14 +4823,14 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
+        <v>143</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
       <c r="K15" s="31"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
@@ -5019,12 +4839,12 @@
       <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G16" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
+      <c r="G16" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="31"/>
       <c r="L16" s="33"/>
       <c r="M16" s="33"/>
@@ -5033,12 +4853,12 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
+      <c r="G17" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
       <c r="K17" s="31"/>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -5047,12 +4867,12 @@
       <c r="P17" s="33"/>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
+      <c r="G18" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
       <c r="K18" s="31"/>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
@@ -5061,12 +4881,12 @@
       <c r="P18" s="33"/>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
+      <c r="G20" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="31"/>
       <c r="L20" s="33"/>
       <c r="M20" s="33"/>
@@ -5075,12 +4895,12 @@
       <c r="P20" s="33"/>
     </row>
     <row r="21" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G21" s="80" t="s">
-        <v>138</v>
-      </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="G21" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="31"/>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -5090,16 +4910,16 @@
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
+      <c r="G24" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="31"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -5108,12 +4928,12 @@
       <c r="P24" s="33"/>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
+      <c r="G25" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
       <c r="K25" s="31"/>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -5122,12 +4942,12 @@
       <c r="P25" s="33"/>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
+      <c r="G26" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="31"/>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -5137,6 +4957,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="L1:O1"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:J10"/>
@@ -5148,11 +4973,6 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="L1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5164,140 +4984,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K18" sqref="K18"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="18" style="27" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="21" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="20" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="18" style="27" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>251</v>
-      </c>
-      <c r="D1" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="G1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="H1" s="47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="44">
+        <v>1</v>
+      </c>
+      <c r="C2" s="44">
         <v>0.8</v>
       </c>
-      <c r="C2" s="44">
+      <c r="D2" s="44">
         <v>1.2</v>
       </c>
-      <c r="D2" s="44">
+      <c r="E2" s="44">
         <v>0.5</v>
       </c>
-      <c r="E2" s="44">
+      <c r="F2" s="44">
         <v>0.8</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="44">
+        <v>1</v>
+      </c>
+      <c r="C3" s="44">
         <v>0.8</v>
       </c>
-      <c r="C3" s="45">
+      <c r="D3" s="45">
         <v>1.2</v>
       </c>
-      <c r="D3" s="45">
+      <c r="E3" s="45">
         <v>0.7</v>
       </c>
-      <c r="E3" s="45">
+      <c r="F3" s="45">
         <v>0.3</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="45">
+      <c r="H3" s="45">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="44">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44">
         <v>0.8</v>
       </c>
-      <c r="C4" s="44">
+      <c r="D4" s="44">
         <v>1.2</v>
       </c>
-      <c r="D4" s="45">
+      <c r="E4" s="45">
         <v>0.3</v>
       </c>
-      <c r="E4" s="45">
+      <c r="F4" s="45">
         <v>0.7</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="45">
+      <c r="H4" s="45">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="85">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44">
         <v>0.8</v>
       </c>
-      <c r="C5" s="45">
+      <c r="D5" s="45">
         <v>1.2</v>
       </c>
-      <c r="D5" s="46">
+      <c r="E5" s="46">
         <v>0.4</v>
       </c>
-      <c r="E5" s="46">
+      <c r="F5" s="46">
         <v>0.6</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="46">
+      <c r="H5" s="46">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>106</v>
       </c>
@@ -5305,15 +5141,17 @@
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="28"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>107</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5330,24 +5168,24 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J6" sqref="J6"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="26" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="21" customWidth="1"/>
-    <col min="10" max="10" width="16" style="26" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="26" customWidth="1"/>
-    <col min="12" max="12" width="64" style="21" customWidth="1"/>
-    <col min="13" max="13" width="46.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="26" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="16" style="26" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" style="26" customWidth="1"/>
+    <col min="13" max="13" width="34" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5358,37 +5196,37 @@
         <v>96</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="G1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="H1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="J1" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="K1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="L1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="50" t="s">
-        <v>123</v>
-      </c>
       <c r="M1" s="50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5399,37 +5237,37 @@
         <v>79</v>
       </c>
       <c r="C2" s="55">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55">
         <v>0.8</v>
       </c>
-      <c r="D2" s="55">
+      <c r="E2" s="55">
         <v>1.2</v>
       </c>
-      <c r="E2" s="58">
+      <c r="F2" s="58">
         <v>20</v>
       </c>
-      <c r="F2" s="58">
+      <c r="G2" s="58">
         <v>25</v>
       </c>
-      <c r="G2" s="58">
+      <c r="H2" s="58">
         <v>70</v>
       </c>
-      <c r="H2" s="58">
+      <c r="I2" s="58">
         <v>45</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="58">
+      <c r="K2" s="58">
         <v>2</v>
       </c>
-      <c r="K2" s="62">
+      <c r="L2" s="62">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5440,37 +5278,37 @@
         <v>79</v>
       </c>
       <c r="C3" s="55">
+        <v>1</v>
+      </c>
+      <c r="D3" s="55">
         <v>0.8</v>
       </c>
-      <c r="D3" s="55">
+      <c r="E3" s="55">
         <v>1.2</v>
       </c>
-      <c r="E3" s="59">
+      <c r="F3" s="59">
         <v>25</v>
       </c>
-      <c r="F3" s="59">
+      <c r="G3" s="59">
         <v>20</v>
-      </c>
-      <c r="G3" s="59">
-        <v>60</v>
       </c>
       <c r="H3" s="59">
         <v>60</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="59">
+        <v>60</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="59">
-        <v>1</v>
-      </c>
       <c r="K3" s="59">
+        <v>1</v>
+      </c>
+      <c r="L3" s="59">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5481,37 +5319,37 @@
         <v>79</v>
       </c>
       <c r="C4" s="55">
+        <v>1</v>
+      </c>
+      <c r="D4" s="55">
         <v>0.8</v>
       </c>
-      <c r="D4" s="55">
+      <c r="E4" s="55">
         <v>1.2</v>
       </c>
-      <c r="E4" s="59">
+      <c r="F4" s="59">
         <v>15</v>
       </c>
-      <c r="F4" s="59">
+      <c r="G4" s="59">
         <v>10</v>
       </c>
-      <c r="G4" s="59">
+      <c r="H4" s="59">
         <v>65</v>
       </c>
-      <c r="H4" s="59">
+      <c r="I4" s="59">
         <v>55</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="59">
-        <v>1</v>
-      </c>
       <c r="K4" s="59">
+        <v>1</v>
+      </c>
+      <c r="L4" s="59">
         <v>2</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5522,37 +5360,37 @@
         <v>79</v>
       </c>
       <c r="C5" s="55">
+        <v>1</v>
+      </c>
+      <c r="D5" s="55">
         <v>0.8</v>
       </c>
-      <c r="D5" s="55">
+      <c r="E5" s="55">
         <v>1.2</v>
       </c>
-      <c r="E5" s="59">
+      <c r="F5" s="59">
         <v>25</v>
       </c>
-      <c r="F5" s="59">
+      <c r="G5" s="59">
         <v>15</v>
       </c>
-      <c r="G5" s="59">
+      <c r="H5" s="59">
         <v>80</v>
       </c>
-      <c r="H5" s="59">
+      <c r="I5" s="59">
         <v>50</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="59">
-        <v>1</v>
-      </c>
       <c r="K5" s="59">
+        <v>1</v>
+      </c>
+      <c r="L5" s="59">
         <v>2</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="M5" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5563,37 +5401,37 @@
         <v>79</v>
       </c>
       <c r="C6" s="55">
+        <v>1</v>
+      </c>
+      <c r="D6" s="55">
         <v>0.8</v>
       </c>
-      <c r="D6" s="55">
+      <c r="E6" s="55">
         <v>1.2</v>
       </c>
-      <c r="E6" s="59">
+      <c r="F6" s="59">
         <v>15</v>
       </c>
-      <c r="F6" s="59">
+      <c r="G6" s="59">
         <v>20</v>
       </c>
-      <c r="G6" s="59">
+      <c r="H6" s="59">
         <v>75</v>
       </c>
-      <c r="H6" s="59">
+      <c r="I6" s="59">
         <v>55</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="59">
-        <v>1</v>
-      </c>
       <c r="K6" s="59">
+        <v>1</v>
+      </c>
+      <c r="L6" s="59">
         <v>2</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5604,37 +5442,37 @@
         <v>80</v>
       </c>
       <c r="C7" s="55">
+        <v>1</v>
+      </c>
+      <c r="D7" s="55">
         <v>0.8</v>
       </c>
-      <c r="D7" s="55">
+      <c r="E7" s="55">
         <v>1.2</v>
-      </c>
-      <c r="E7" s="59">
-        <v>35</v>
       </c>
       <c r="F7" s="59">
         <v>35</v>
       </c>
       <c r="G7" s="59">
+        <v>35</v>
+      </c>
+      <c r="H7" s="59">
         <v>55</v>
       </c>
-      <c r="H7" s="59">
+      <c r="I7" s="59">
         <v>60</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="59">
+      <c r="K7" s="59">
         <v>3</v>
       </c>
-      <c r="K7" s="59">
+      <c r="L7" s="59">
         <v>5</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5645,37 +5483,37 @@
         <v>80</v>
       </c>
       <c r="C8" s="55">
+        <v>1</v>
+      </c>
+      <c r="D8" s="55">
         <v>0.8</v>
       </c>
-      <c r="D8" s="55">
+      <c r="E8" s="55">
         <v>1.2</v>
       </c>
-      <c r="E8" s="59">
+      <c r="F8" s="59">
         <v>40</v>
       </c>
-      <c r="F8" s="59">
+      <c r="G8" s="59">
         <v>45</v>
       </c>
-      <c r="G8" s="59">
+      <c r="H8" s="59">
         <v>40</v>
       </c>
-      <c r="H8" s="59">
+      <c r="I8" s="59">
         <v>50</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="59">
+      <c r="K8" s="59">
         <v>4</v>
       </c>
-      <c r="K8" s="59">
+      <c r="L8" s="59">
         <v>7</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5686,37 +5524,37 @@
         <v>80</v>
       </c>
       <c r="C9" s="55">
+        <v>1</v>
+      </c>
+      <c r="D9" s="55">
         <v>0.8</v>
       </c>
-      <c r="D9" s="55">
+      <c r="E9" s="55">
         <v>1.2</v>
       </c>
-      <c r="E9" s="59">
+      <c r="F9" s="59">
         <v>45</v>
       </c>
-      <c r="F9" s="59">
+      <c r="G9" s="59">
         <v>50</v>
       </c>
-      <c r="G9" s="59">
+      <c r="H9" s="59">
         <v>45</v>
       </c>
-      <c r="H9" s="59">
+      <c r="I9" s="59">
         <v>20</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="59">
+      <c r="K9" s="59">
         <v>3</v>
       </c>
-      <c r="K9" s="59">
+      <c r="L9" s="59">
         <v>5</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="M9" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5727,37 +5565,37 @@
         <v>80</v>
       </c>
       <c r="C10" s="55">
+        <v>1</v>
+      </c>
+      <c r="D10" s="55">
         <v>0.8</v>
       </c>
-      <c r="D10" s="55">
+      <c r="E10" s="55">
         <v>1.2</v>
       </c>
-      <c r="E10" s="59">
+      <c r="F10" s="59">
         <v>55</v>
       </c>
-      <c r="F10" s="59">
+      <c r="G10" s="59">
         <v>45</v>
-      </c>
-      <c r="G10" s="59">
-        <v>30</v>
       </c>
       <c r="H10" s="59">
         <v>30</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="59">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="59">
+      <c r="K10" s="59">
         <v>5</v>
       </c>
-      <c r="K10" s="59">
+      <c r="L10" s="59">
         <v>10</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="M10" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5768,37 +5606,37 @@
         <v>81</v>
       </c>
       <c r="C11" s="55">
+        <v>1</v>
+      </c>
+      <c r="D11" s="55">
         <v>0.8</v>
       </c>
-      <c r="D11" s="55">
+      <c r="E11" s="55">
         <v>1.2</v>
       </c>
-      <c r="E11" s="59">
+      <c r="F11" s="59">
         <v>60</v>
       </c>
-      <c r="F11" s="59">
+      <c r="G11" s="59">
         <v>80</v>
       </c>
-      <c r="G11" s="59">
+      <c r="H11" s="59">
         <v>15</v>
       </c>
-      <c r="H11" s="59">
+      <c r="I11" s="59">
         <v>30</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="59">
+      <c r="K11" s="59">
         <v>20</v>
       </c>
-      <c r="K11" s="59">
+      <c r="L11" s="59">
         <v>30</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="M11" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5809,37 +5647,37 @@
         <v>81</v>
       </c>
       <c r="C12" s="55">
+        <v>1</v>
+      </c>
+      <c r="D12" s="55">
         <v>0.8</v>
       </c>
-      <c r="D12" s="55">
+      <c r="E12" s="55">
         <v>1.2</v>
       </c>
-      <c r="E12" s="59">
+      <c r="F12" s="59">
         <v>80</v>
       </c>
-      <c r="F12" s="59">
+      <c r="G12" s="59">
         <v>65</v>
       </c>
-      <c r="G12" s="59">
+      <c r="H12" s="59">
         <v>20</v>
       </c>
-      <c r="H12" s="59">
+      <c r="I12" s="59">
         <v>35</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="59">
+      <c r="K12" s="59">
         <v>20</v>
       </c>
-      <c r="K12" s="59">
+      <c r="L12" s="59">
         <v>30</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="M12" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5849,38 +5687,38 @@
       <c r="B13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="84">
+        <v>1</v>
+      </c>
+      <c r="D13" s="55">
         <v>0.8</v>
       </c>
-      <c r="D13" s="55">
+      <c r="E13" s="55">
         <v>1.2</v>
-      </c>
-      <c r="E13" s="60">
-        <v>70</v>
       </c>
       <c r="F13" s="60">
         <v>70</v>
       </c>
       <c r="G13" s="60">
+        <v>70</v>
+      </c>
+      <c r="H13" s="60">
         <v>25</v>
       </c>
-      <c r="H13" s="60">
+      <c r="I13" s="60">
         <v>40</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="60">
+      <c r="K13" s="60">
         <v>20</v>
       </c>
-      <c r="K13" s="60">
+      <c r="L13" s="60">
         <v>30</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="M13" s="3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -5892,6 +5730,7 @@
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="52" t="s">
@@ -5902,8 +5741,9 @@
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
         <v>86</v>
       </c>
@@ -5912,22 +5752,24 @@
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L18" sqref="L18"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5942,24 +5784,23 @@
     <col min="8" max="8" width="12.5703125" style="21" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" style="27" customWidth="1"/>
     <col min="10" max="10" width="55" style="21" customWidth="1"/>
-    <col min="11" max="11" width="55.140625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>76</v>
@@ -5974,18 +5815,15 @@
         <v>75</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="K1" s="50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -6011,18 +5849,15 @@
         <v>0.1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="65">
         <v>1</v>
@@ -6046,18 +5881,15 @@
         <v>0.1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -6083,18 +5915,15 @@
         <v>0.1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="65">
         <v>1</v>
@@ -6120,18 +5949,15 @@
         <v>0.1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -6157,18 +5983,15 @@
         <v>0.1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="65">
         <v>1</v>
@@ -6194,18 +6017,15 @@
         <v>0.15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -6229,18 +6049,15 @@
         <v>0.15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="65">
         <v>1</v>
@@ -6266,18 +6083,15 @@
         <v>0.15</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -6303,18 +6117,15 @@
         <v>0.15</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
@@ -6340,18 +6151,15 @@
         <v>0.15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -6377,18 +6185,15 @@
         <v>0.2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="65">
         <v>1</v>
@@ -6412,18 +6217,15 @@
         <v>0.2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -6449,18 +6251,15 @@
         <v>0.2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C15" s="65">
         <v>1</v>
@@ -6486,18 +6285,15 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="64">
         <v>1</v>
@@ -6523,15 +6319,12 @@
         <v>0.2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>77</v>
@@ -6548,11 +6341,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L5" sqref="L5"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6569,24 +6362,23 @@
     <col min="10" max="10" width="3.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="54.85546875" style="21" customWidth="1"/>
-    <col min="13" max="13" width="56.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D1" s="63" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="F1" s="70" t="s">
         <v>39</v>
@@ -6607,18 +6399,15 @@
         <v>6</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -6649,18 +6438,15 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="65">
         <v>1</v>
@@ -6691,18 +6477,15 @@
         <v>5</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -6732,18 +6515,15 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="65">
         <v>1</v>
@@ -6773,18 +6553,15 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -6814,18 +6591,15 @@
         <v>5</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="65">
         <v>1</v>
@@ -6855,18 +6629,15 @@
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -6896,18 +6667,15 @@
         <v>5</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="65">
         <v>1</v>
@@ -6937,18 +6705,15 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -6979,18 +6744,15 @@
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
@@ -7020,15 +6782,12 @@
         <v>5</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -7041,11 +6800,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M11" sqref="M11"/>
+      <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7061,24 +6820,23 @@
     <col min="11" max="11" width="6.7109375" style="26" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" style="21" customWidth="1"/>
     <col min="13" max="13" width="55.42578125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="55" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="F1" s="35" t="s">
         <v>50</v>
@@ -7102,13 +6860,10 @@
         <v>52</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -7146,18 +6901,15 @@
         <v>55</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -7190,18 +6942,15 @@
         <v>55</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -7234,18 +6983,15 @@
         <v>55</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -7278,18 +7024,15 @@
         <v>55</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -7322,18 +7065,15 @@
         <v>55</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -7366,18 +7106,15 @@
         <v>55</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -7410,18 +7147,15 @@
         <v>56</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -7454,15 +7188,12 @@
         <v>56</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -168,62 +168,65 @@
   <connection id="49" name="D_Rooms7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="50" name="D_text" type="4" refreshedVersion="0" background="1">
+  <connection id="50" name="D_Rooms8" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Rooms.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="51" name="D_text" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="51" name="D_text1" type="4" refreshedVersion="0" background="1">
+  <connection id="52" name="D_text1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="52" name="D_text2" type="4" refreshedVersion="0" background="1">
+  <connection id="53" name="D_text2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_text.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="53" name="D_Weapons" type="4" refreshedVersion="0" background="1">
+  <connection id="54" name="D_Weapons" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="54" name="D_Weapons1" type="4" refreshedVersion="0" background="1">
+  <connection id="55" name="D_Weapons1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="55" name="D_Weapons10" type="4" refreshedVersion="0" background="1">
+  <connection id="56" name="D_Weapons10" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="56" name="D_Weapons11" type="4" refreshedVersion="0" background="1">
+  <connection id="57" name="D_Weapons11" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="57" name="D_Weapons2" type="4" refreshedVersion="0" background="1">
+  <connection id="58" name="D_Weapons2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="58" name="D_Weapons3" type="4" refreshedVersion="0" background="1">
+  <connection id="59" name="D_Weapons3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="59" name="D_Weapons4" type="4" refreshedVersion="0" background="1">
+  <connection id="60" name="D_Weapons4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="60" name="D_Weapons5" type="4" refreshedVersion="0" background="1">
+  <connection id="61" name="D_Weapons5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="61" name="D_Weapons6" type="4" refreshedVersion="0" background="1">
+  <connection id="62" name="D_Weapons6" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="62" name="D_Weapons7" type="4" refreshedVersion="0" background="1">
+  <connection id="63" name="D_Weapons7" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="63" name="D_Weapons8" type="4" refreshedVersion="0" background="1">
+  <connection id="64" name="D_Weapons8" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="64" name="D_Weapons9" type="4" refreshedVersion="0" background="1">
+  <connection id="65" name="D_Weapons9" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Drafts\D_Weapons.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="65" name="Monsters" type="4" refreshedVersion="0" background="1">
+  <connection id="66" name="Monsters" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\Flo\git\RDG\RDG\config\Results\Monsters.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="66" name="Schema_Potions" type="4" refreshedVersion="0" background="1">
+  <connection id="67" name="Schema_Potions" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Dokumente\fh\bif\3\ITP3\Config\Schema_Potions.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="210">
   <si>
     <t>Axt</t>
   </si>
@@ -850,6 +853,9 @@
   </si>
   <si>
     <t>weapons/bow.png</t>
+  </si>
+  <si>
+    <t>Monster_Count</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,6 +1331,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,6 +1352,9 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1342,131 +1363,14 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+  <dxfs count="98">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3088,6 +2992,35 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -3347,6 +3280,91 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -3508,57 +3526,6 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema31">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="Rooms">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Room" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" name="Door_Positions" form="unqualified">
-                    <xsd:complexType>
-                      <xsd:sequence minOccurs="0">
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="N" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="E" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="S" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="W" form="unqualified"/>
-                      </xsd:sequence>
-                    </xsd:complexType>
-                  </xsd:element>
-                  <xsd:element minOccurs="0" nillable="true" name="Monster" form="unqualified">
-                    <xsd:complexType>
-                      <xsd:sequence minOccurs="0">
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="no" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="easy" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="normal" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hard" form="unqualified"/>
-                      </xsd:sequence>
-                    </xsd:complexType>
-                  </xsd:element>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Item_Multiplier" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" name="Find_Probabilities" form="unqualified">
-                    <xsd:complexType>
-                      <xsd:sequence minOccurs="0">
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="none" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="weak" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="medium" form="unqualified"/>
-                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="strong" form="unqualified"/>
-                      </xsd:sequence>
-                    </xsd:complexType>
-                  </xsd:element>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Item_Count" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image" form="unqualified"/>
-                </xsd:sequence>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
   <Schema ID="Schema7">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Attacks">
@@ -3695,6 +3662,58 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema8">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="Rooms">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Room" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Description" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" name="Door_Positions" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="N" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="E" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="S" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="W" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" name="Monster" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="no" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="easy" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="normal" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="hard" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Monster_Count" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="Item_Multiplier" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" name="Find_Probabilities" form="unqualified">
+                    <xsd:complexType>
+                      <xsd:sequence minOccurs="0">
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="none" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="weak" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="medium" form="unqualified"/>
+                        <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="strong" form="unqualified"/>
+                      </xsd:sequence>
+                    </xsd:complexType>
+                  </xsd:element>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Item_Count" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Image" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="74" Name="Armaments_Map" RootElement="Armaments" SchemaID="Schema13" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
@@ -3707,69 +3726,72 @@
   <Map ID="75" Name="Potions_Map" RootElement="Potions" SchemaID="Schema14" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding FileBinding="true" ConnectionID="32" DataBindingLoadMode="1"/>
   </Map>
-  <Map ID="60" Name="Rooms_Map" RootElement="Rooms" SchemaID="Schema31" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="49" DataBindingLoadMode="1"/>
+  <Map ID="80" Name="Rooms_Map" RootElement="Rooms" SchemaID="Schema8" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="50" DataBindingLoadMode="1"/>
   </Map>
   <Map ID="76" Name="Weapons_Map" RootElement="Weapons" SchemaID="Schema15" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="56" DataBindingLoadMode="1"/>
+    <DataBinding FileBinding="true" ConnectionID="57" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A2:Q8" tableType="xml" totalsRowShown="0" headerRowDxfId="96" headerRowBorderDxfId="95" connectionId="49">
-  <autoFilter ref="A2:Q8"/>
-  <tableColumns count="17">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="94">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="93">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Description" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="N" name="N" dataDxfId="92">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Door_Positions/N" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="E" name="E" dataDxfId="91">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Door_Positions/E" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="S" name="S" dataDxfId="90">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Door_Positions/S" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="W" name="W" dataDxfId="89">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Door_Positions/W" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="no" name="no" dataDxfId="88">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Monster/no" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="easy" name="easy" dataDxfId="87">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Monster/easy" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="normal" name="normal" dataDxfId="86">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Monster/normal" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="10" uniqueName="hard" name="hard" dataDxfId="85">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Monster/hard" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="11" uniqueName="Item_Multiplier" name="Item_Multiplier" dataDxfId="84">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Item_Multiplier" xmlDataType="double"/>
-    </tableColumn>
-    <tableColumn id="17" uniqueName="none" name="none" dataDxfId="83">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Find_Probabilities/none" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="12" uniqueName="weak" name="weak" dataDxfId="82">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Find_Probabilities/weak" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="13" uniqueName="medium" name="medium" dataDxfId="81">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Find_Probabilities/medium" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="14" uniqueName="strong" name="strong" dataDxfId="80">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Find_Probabilities/strong" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="15" uniqueName="Item_Count" name="Item_Count" dataDxfId="79">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Item_Count" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="16" uniqueName="Image" name="Image" dataDxfId="78">
-      <xmlColumnPr mapId="60" xpath="/Rooms/Room/Image" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A2:R8" tableType="xml" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" connectionId="50">
+  <autoFilter ref="A2:R8"/>
+  <tableColumns count="18">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="95">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="94">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Description" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="N" name="N" dataDxfId="93">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Door_Positions/N" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="E" name="E" dataDxfId="92">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Door_Positions/E" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="S" name="S" dataDxfId="91">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Door_Positions/S" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="W" name="W" dataDxfId="90">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Door_Positions/W" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="7" uniqueName="no" name="no" dataDxfId="89">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster/no" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" uniqueName="easy" name="easy" dataDxfId="88">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster/easy" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="normal" name="normal" dataDxfId="87">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster/normal" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="hard" name="hard" dataDxfId="86">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster/hard" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="18" uniqueName="Monster_Count" name="Monster_Count" dataDxfId="0">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster_Count" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="Item_Multiplier" name="Item_Multiplier" dataDxfId="85">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Item_Multiplier" xmlDataType="double"/>
+    </tableColumn>
+    <tableColumn id="17" uniqueName="none" name="none" dataDxfId="84">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/none" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" uniqueName="weak" name="weak" dataDxfId="83">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/weak" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="13" uniqueName="medium" name="medium" dataDxfId="82">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/medium" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="strong" name="strong" dataDxfId="81">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/strong" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="Item_Count" name="Item_Count" dataDxfId="80">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Item_Count" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="16" uniqueName="Image" name="Image" dataDxfId="79">
+      <xmlColumnPr mapId="80" xpath="/Rooms/Room/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3777,31 +3799,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H5" tableType="xml" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" connectionId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H5" tableType="xml" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" connectionId="18">
   <autoFilter ref="A1:H5"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="2">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="74">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="0">
+    <tableColumn id="8" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="73">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="1">
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="72">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="73">
+    <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="71">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="72">
+    <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="70">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/HP_Damage" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="71">
+    <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="69">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Hit_Probability" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="70">
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="68">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="x" name="x" dataDxfId="69">
+    <tableColumn id="5" uniqueName="x" name="x" dataDxfId="67">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/x" xmlDataType="double"/>
     </tableColumn>
   </tableColumns>
@@ -3810,46 +3832,46 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="68" dataDxfId="66" headerRowBorderDxfId="67" tableBorderDxfId="65" connectionId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" connectionId="21">
   <autoFilter ref="A1:M13"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="64">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="62">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="63">
+    <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="61">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Level" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="3">
+    <tableColumn id="14" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="60">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="62">
+    <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="59">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="61">
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="58">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="60">
+    <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="57">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="59">
+    <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="56">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Strength" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="58">
+    <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="55">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="57">
+    <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="54">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Accuracy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="56">
+    <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="53">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="55">
+    <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="52">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_Low" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="54">
+    <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="51">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_High" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Image" name="Image" dataDxfId="53">
+    <tableColumn id="11" uniqueName="Image" name="Image" dataDxfId="50">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3858,37 +3880,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:J16" tableType="xml" totalsRowShown="0" headerRowDxfId="52" dataDxfId="50" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="48" connectionId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:J16" tableType="xml" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45" connectionId="3">
   <autoFilter ref="A1:J16"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="47">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="44">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="46">
+    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="43">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="45">
+    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="42">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="44">
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="41">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="43">
+    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="40">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="42">
+    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="39">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Armor" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="41">
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="38">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="40">
+    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="37">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="39">
+    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="36">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Bonus" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Image" name="Image" dataDxfId="38">
+    <tableColumn id="7" uniqueName="Image" name="Image" dataDxfId="35">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3897,43 +3919,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L11" tableType="xml" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33" connectionId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L11" tableType="xml" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30" connectionId="32">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="32">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="29">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="31">
+    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="28">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="30">
+    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="27">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="29">
+    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="26">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="28">
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="25">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="27">
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="24">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="26">
+    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="23">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="25">
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="22">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="24">
+    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="21">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Mode" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="23">
+    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="20">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/x" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="22">
+    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="19">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/n" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Image" name="Image" dataDxfId="21">
+    <tableColumn id="8" uniqueName="Image" name="Image" dataDxfId="18">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3942,47 +3964,47 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M9" tableType="xml" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17" connectionId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M9" tableType="xml" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" connectionId="57">
   <autoFilter ref="A1:M9"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="16">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="13">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="15">
+    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="12">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="14">
+    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="11">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="13">
+    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="10">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="12">
+    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="9">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="11">
+    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="8">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="10">
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="7">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="9">
+    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="6">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Accuracy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="8">
+    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="5">
       <calculatedColumnFormula>"-"</calculatedColumnFormula>
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Defence" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="7">
+    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="4">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Slots" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="6">
+    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="3">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Max" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="5">
+    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="2">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Image" name="Image" dataDxfId="4">
+    <tableColumn id="9" uniqueName="Image" name="Image" dataDxfId="1">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4307,11 +4329,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,41 +4348,43 @@
     <col min="8" max="8" width="11.140625" style="26" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" style="26" customWidth="1"/>
     <col min="10" max="10" width="13" style="26" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5703125" style="26" customWidth="1"/>
-    <col min="13" max="13" width="8" style="26" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="26" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="26" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="26" customWidth="1"/>
+    <col min="14" max="14" width="8" style="26" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="26" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="78" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="81" t="s">
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="38"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>40</v>
       </c>
@@ -4391,29 +4415,32 @@
       <c r="J2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="78" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="M2" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="N2" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="O2" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="P2" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="Q2" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="R2" s="39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>108</v>
       </c>
@@ -4444,29 +4471,32 @@
       <c r="J3" s="26">
         <v>0</v>
       </c>
-      <c r="K3" s="27">
+      <c r="K3" s="26">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27">
         <v>1.5</v>
       </c>
-      <c r="L3" s="26">
+      <c r="M3" s="26">
         <v>0</v>
       </c>
-      <c r="M3" s="26">
+      <c r="N3" s="26">
         <v>30</v>
       </c>
-      <c r="N3" s="26">
+      <c r="O3" s="26">
         <v>50</v>
       </c>
-      <c r="O3" s="26">
+      <c r="P3" s="26">
         <v>20</v>
       </c>
-      <c r="P3" s="26">
+      <c r="Q3" s="26">
         <v>3</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>109</v>
       </c>
@@ -4497,29 +4527,32 @@
       <c r="J4" s="26">
         <v>0</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="26">
+        <v>1</v>
+      </c>
+      <c r="L4" s="27">
         <v>1.25</v>
-      </c>
-      <c r="L4" s="26">
-        <v>30</v>
       </c>
       <c r="M4" s="26">
         <v>30</v>
       </c>
       <c r="N4" s="26">
+        <v>30</v>
+      </c>
+      <c r="O4" s="26">
         <v>40</v>
       </c>
-      <c r="O4" s="26">
+      <c r="P4" s="26">
         <v>0</v>
       </c>
-      <c r="P4" s="26">
+      <c r="Q4" s="26">
         <v>2</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>110</v>
       </c>
@@ -4550,29 +4583,32 @@
       <c r="J5" s="26">
         <v>0</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="26">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27">
         <v>1.25</v>
-      </c>
-      <c r="L5" s="26">
-        <v>30</v>
       </c>
       <c r="M5" s="26">
         <v>30</v>
       </c>
       <c r="N5" s="26">
+        <v>30</v>
+      </c>
+      <c r="O5" s="26">
         <v>40</v>
       </c>
-      <c r="O5" s="26">
+      <c r="P5" s="26">
         <v>0</v>
       </c>
-      <c r="P5" s="26">
+      <c r="Q5" s="26">
         <v>2</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>111</v>
       </c>
@@ -4603,29 +4639,32 @@
       <c r="J6" s="26">
         <v>0</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
+        <v>1</v>
+      </c>
+      <c r="L6" s="27">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L6" s="26">
+      <c r="M6" s="26">
         <v>25</v>
       </c>
-      <c r="M6" s="26">
+      <c r="N6" s="26">
         <v>50</v>
       </c>
-      <c r="N6" s="26">
+      <c r="O6" s="26">
         <v>25</v>
       </c>
-      <c r="O6" s="26">
+      <c r="P6" s="26">
         <v>0</v>
       </c>
-      <c r="P6" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="26">
+        <v>1</v>
+      </c>
+      <c r="R6" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>112</v>
       </c>
@@ -4656,29 +4695,32 @@
       <c r="J7" s="26">
         <v>0</v>
       </c>
-      <c r="K7" s="27">
-        <v>1</v>
-      </c>
-      <c r="L7" s="26">
-        <v>50</v>
+      <c r="K7" s="26">
+        <v>1</v>
+      </c>
+      <c r="L7" s="27">
+        <v>1</v>
       </c>
       <c r="M7" s="26">
         <v>50</v>
       </c>
       <c r="N7" s="26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O7" s="26">
         <v>0</v>
       </c>
       <c r="P7" s="26">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>1</v>
+      </c>
+      <c r="R7" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>113</v>
       </c>
@@ -4709,54 +4751,58 @@
       <c r="J8" s="26">
         <v>1</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="26">
+        <v>1</v>
+      </c>
+      <c r="L8" s="27">
         <v>2</v>
       </c>
-      <c r="L8" s="26">
+      <c r="M8" s="26">
         <v>0</v>
       </c>
-      <c r="M8" s="26">
+      <c r="N8" s="26">
         <v>10</v>
       </c>
-      <c r="N8" s="26">
+      <c r="O8" s="26">
         <v>20</v>
       </c>
-      <c r="O8" s="26">
+      <c r="P8" s="26">
         <v>70</v>
       </c>
-      <c r="P8" s="26">
+      <c r="Q8" s="26">
         <v>5</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="R8" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77" t="s">
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="77" t="s">
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="33"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="33"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>142</v>
       </c>
@@ -4764,14 +4810,15 @@
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="34"/>
       <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="34"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>145</v>
       </c>
@@ -4781,16 +4828,17 @@
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="N12" s="34"/>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" s="34"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>146</v>
       </c>
@@ -4798,170 +4846,176 @@
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34" t="s">
+      <c r="K13" s="34"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="N13" s="34"/>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G14" s="77" t="s">
+      <c r="Q13" s="34"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G14" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="33"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" s="33"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="33"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G16" s="77" t="s">
+      <c r="Q15" s="33"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G16" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="33"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
       <c r="O16" s="33"/>
       <c r="P16" s="33"/>
-    </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G17" s="77" t="s">
+      <c r="Q16" s="33"/>
+    </row>
+    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G17" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="33"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G18" s="77" t="s">
+      <c r="Q17" s="33"/>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G18" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="33"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="31"/>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
-    </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G20" s="77" t="s">
+      <c r="Q18" s="33"/>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G20" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="33"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
       <c r="O20" s="33"/>
       <c r="P20" s="33"/>
-    </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G21" s="77" t="s">
+      <c r="Q20" s="33"/>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="33"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
-    </row>
-    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="33"/>
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G23" s="26" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G24" s="77" t="s">
+    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G24" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="33"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
       <c r="P24" s="33"/>
-    </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G25" s="77" t="s">
+      <c r="Q24" s="33"/>
+    </row>
+    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="33"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33"/>
       <c r="P25" s="33"/>
-    </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="G26" s="77" t="s">
+      <c r="Q25" s="33"/>
+    </row>
+    <row r="26" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G26" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="33"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
       <c r="O26" s="33"/>
       <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="L1:O1"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:J10"/>
@@ -4973,6 +5027,11 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5111,7 +5170,7 @@
       <c r="A5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="85">
+      <c r="B5" s="81">
         <v>1</v>
       </c>
       <c r="C5" s="44">
@@ -5687,7 +5746,7 @@
       <c r="B13" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="84">
+      <c r="C13" s="80">
         <v>1</v>
       </c>
       <c r="D13" s="55">
@@ -6802,7 +6861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -1343,6 +1343,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,9 +1354,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1369,9 +1369,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="98">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3449,6 +3446,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -3769,28 +3769,28 @@
     <tableColumn id="10" uniqueName="hard" name="hard" dataDxfId="86">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster/hard" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="Monster_Count" name="Monster_Count" dataDxfId="0">
+    <tableColumn id="18" uniqueName="Monster_Count" name="Monster_Count" dataDxfId="85">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster_Count" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Item_Multiplier" name="Item_Multiplier" dataDxfId="85">
+    <tableColumn id="11" uniqueName="Item_Multiplier" name="Item_Multiplier" dataDxfId="84">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Item_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="none" name="none" dataDxfId="84">
+    <tableColumn id="17" uniqueName="none" name="none" dataDxfId="83">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/none" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="weak" name="weak" dataDxfId="83">
+    <tableColumn id="12" uniqueName="weak" name="weak" dataDxfId="82">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/weak" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="medium" name="medium" dataDxfId="82">
+    <tableColumn id="13" uniqueName="medium" name="medium" dataDxfId="81">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/medium" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="strong" name="strong" dataDxfId="81">
+    <tableColumn id="14" uniqueName="strong" name="strong" dataDxfId="80">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/strong" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Item_Count" name="Item_Count" dataDxfId="80">
+    <tableColumn id="15" uniqueName="Item_Count" name="Item_Count" dataDxfId="79">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Item_Count" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="Image" name="Image" dataDxfId="79">
+    <tableColumn id="16" uniqueName="Image" name="Image" dataDxfId="78">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3799,31 +3799,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H5" tableType="xml" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" connectionId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H5" tableType="xml" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" connectionId="18">
   <autoFilter ref="A1:H5"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="74">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="73">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="73">
+    <tableColumn id="8" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="72">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="72">
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="71">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="71">
+    <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="70">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="70">
+    <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="69">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/HP_Damage" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="69">
+    <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="68">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Hit_Probability" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="68">
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="67">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="x" name="x" dataDxfId="67">
+    <tableColumn id="5" uniqueName="x" name="x" dataDxfId="66">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/x" xmlDataType="double"/>
     </tableColumn>
   </tableColumns>
@@ -3832,46 +3832,46 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" connectionId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" connectionId="21">
   <autoFilter ref="A1:M13"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="62">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="61">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="61">
+    <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="60">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Level" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="60">
+    <tableColumn id="14" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="59">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="59">
+    <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="58">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="58">
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="57">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="57">
+    <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="56">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="56">
+    <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="55">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Strength" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="55">
+    <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="54">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="54">
+    <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="53">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Accuracy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="53">
+    <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="52">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="52">
+    <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="51">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_Low" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="51">
+    <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="50">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_High" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Image" name="Image" dataDxfId="50">
+    <tableColumn id="11" uniqueName="Image" name="Image" dataDxfId="49">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3880,37 +3880,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:J16" tableType="xml" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45" connectionId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:J16" tableType="xml" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44" connectionId="3">
   <autoFilter ref="A1:J16"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="44">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="43">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="43">
+    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="42">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="42">
+    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="41">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="41">
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="40">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="40">
+    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="39">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="39">
+    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="38">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Armor" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="38">
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="37">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="37">
+    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="36">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="36">
+    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="35">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Bonus" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Image" name="Image" dataDxfId="35">
+    <tableColumn id="7" uniqueName="Image" name="Image" dataDxfId="34">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3919,43 +3919,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L11" tableType="xml" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30" connectionId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L11" tableType="xml" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29" connectionId="32">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="29">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="28">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="28">
+    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="27">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="27">
+    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="26">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="26">
+    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="25">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="25">
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="24">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="24">
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="23">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="23">
+    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="22">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="22">
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="21">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="21">
+    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="20">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Mode" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="20">
+    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="19">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/x" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="19">
+    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="18">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/n" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Image" name="Image" dataDxfId="18">
+    <tableColumn id="8" uniqueName="Image" name="Image" dataDxfId="17">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3964,47 +3964,47 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M9" tableType="xml" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" connectionId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M9" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" connectionId="57">
   <autoFilter ref="A1:M9"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="13">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="12">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="12">
+    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="11">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="11">
+    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="10">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="10">
+    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="9">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="9">
+    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="8">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="8">
+    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="7">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="7">
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="6">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="6">
+    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="5">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Accuracy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="5">
+    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="4">
       <calculatedColumnFormula>"-"</calculatedColumnFormula>
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Defence" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="4">
+    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="3">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Slots" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="3">
+    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="2">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Max" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="2">
+    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="1">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Image" name="Image" dataDxfId="1">
+    <tableColumn id="9" uniqueName="Image" name="Image" dataDxfId="0">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4331,7 +4331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
@@ -4361,18 +4361,18 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="82" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="85"/>
       <c r="K1" s="79"/>
       <c r="L1" s="29"/>
       <c r="M1" s="86" t="s">
@@ -4780,26 +4780,26 @@
       <c r="A10" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85" t="s">
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="77"/>
       <c r="L10" s="31"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="85" t="s">
+      <c r="N10" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
       <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4857,12 +4857,12 @@
       <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G14" s="85" t="s">
+      <c r="G14" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="77"/>
       <c r="L14" s="31"/>
       <c r="M14" s="33"/>
@@ -4875,12 +4875,12 @@
       <c r="A15" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="85" t="s">
+      <c r="G15" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
       <c r="K15" s="77"/>
       <c r="L15" s="31"/>
       <c r="M15" s="33"/>
@@ -4890,12 +4890,12 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G16" s="85" t="s">
+      <c r="G16" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
       <c r="K16" s="77"/>
       <c r="L16" s="31"/>
       <c r="M16" s="33"/>
@@ -4905,12 +4905,12 @@
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G17" s="85" t="s">
+      <c r="G17" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
       <c r="K17" s="77"/>
       <c r="L17" s="31"/>
       <c r="M17" s="33"/>
@@ -4920,12 +4920,12 @@
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="77"/>
       <c r="L18" s="31"/>
       <c r="M18" s="33"/>
@@ -4935,12 +4935,12 @@
       <c r="Q18" s="33"/>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G20" s="85" t="s">
+      <c r="G20" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
       <c r="K20" s="77"/>
       <c r="L20" s="31"/>
       <c r="M20" s="33"/>
@@ -4950,12 +4950,12 @@
       <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G21" s="85" t="s">
+      <c r="G21" s="82" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
       <c r="K21" s="77"/>
       <c r="L21" s="31"/>
       <c r="M21" s="33"/>
@@ -4970,12 +4970,12 @@
       </c>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="85" t="s">
+      <c r="G24" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
       <c r="K24" s="77"/>
       <c r="L24" s="31"/>
       <c r="M24" s="33"/>
@@ -4985,12 +4985,12 @@
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G25" s="85" t="s">
+      <c r="G25" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
       <c r="K25" s="77"/>
       <c r="L25" s="31"/>
       <c r="M25" s="33"/>
@@ -5000,12 +5000,12 @@
       <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G26" s="85" t="s">
+      <c r="G26" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
       <c r="K26" s="77"/>
       <c r="L26" s="31"/>
       <c r="M26" s="33"/>
@@ -5016,6 +5016,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:J10"/>
@@ -5027,11 +5032,6 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G21:J21"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6861,9 +6861,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7106,10 +7106,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H6" s="68">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I6" s="68">
         <v>50</v>

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -1343,17 +1343,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4361,18 +4361,18 @@
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="83" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="85"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="84"/>
       <c r="K1" s="79"/>
       <c r="L1" s="29"/>
       <c r="M1" s="86" t="s">
@@ -4780,26 +4780,26 @@
       <c r="A10" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82" t="s">
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
       <c r="K10" s="77"/>
       <c r="L10" s="31"/>
       <c r="M10" s="33"/>
-      <c r="N10" s="82" t="s">
+      <c r="N10" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
       <c r="Q10" s="33"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4857,12 +4857,12 @@
       <c r="Q13" s="34"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
       <c r="K14" s="77"/>
       <c r="L14" s="31"/>
       <c r="M14" s="33"/>
@@ -4875,12 +4875,12 @@
       <c r="A15" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
       <c r="K15" s="77"/>
       <c r="L15" s="31"/>
       <c r="M15" s="33"/>
@@ -4890,12 +4890,12 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
       <c r="K16" s="77"/>
       <c r="L16" s="31"/>
       <c r="M16" s="33"/>
@@ -4905,12 +4905,12 @@
       <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
       <c r="K17" s="77"/>
       <c r="L17" s="31"/>
       <c r="M17" s="33"/>
@@ -4920,12 +4920,12 @@
       <c r="Q17" s="33"/>
     </row>
     <row r="18" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="85" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
       <c r="K18" s="77"/>
       <c r="L18" s="31"/>
       <c r="M18" s="33"/>
@@ -4935,12 +4935,12 @@
       <c r="Q18" s="33"/>
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G20" s="82" t="s">
+      <c r="G20" s="85" t="s">
         <v>135</v>
       </c>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
       <c r="K20" s="77"/>
       <c r="L20" s="31"/>
       <c r="M20" s="33"/>
@@ -4950,12 +4950,12 @@
       <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
       <c r="K21" s="77"/>
       <c r="L21" s="31"/>
       <c r="M21" s="33"/>
@@ -4970,12 +4970,12 @@
       </c>
     </row>
     <row r="24" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="82" t="s">
+      <c r="G24" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
       <c r="K24" s="77"/>
       <c r="L24" s="31"/>
       <c r="M24" s="33"/>
@@ -4985,12 +4985,12 @@
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G25" s="82" t="s">
+      <c r="G25" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
       <c r="K25" s="77"/>
       <c r="L25" s="31"/>
       <c r="M25" s="33"/>
@@ -5000,12 +5000,12 @@
       <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G26" s="82" t="s">
+      <c r="G26" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
       <c r="K26" s="77"/>
       <c r="L26" s="31"/>
       <c r="M26" s="33"/>
@@ -5016,11 +5016,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="M1:P1"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="G10:J10"/>
@@ -5032,6 +5027,11 @@
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G21:J21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5045,9 +5045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5096,10 +5096,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="44">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D2" s="44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="44">
         <v>0.5</v>
@@ -5122,10 +5122,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="44">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D3" s="45">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="45">
         <v>0.7</v>
@@ -5148,10 +5148,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="44">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="44">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="45">
         <v>0.3</v>
@@ -5174,10 +5174,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="44">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="D5" s="45">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="46">
         <v>0.4</v>
@@ -6861,7 +6861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I18" sqref="I18"/>
     </sheetView>

--- a/RDG/config/RDG.xlsx
+++ b/RDG/config/RDG.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10725" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12420" windowHeight="4245" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Potions" sheetId="5" r:id="rId6"/>
     <sheet name="Weapons" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -315,36 +315,9 @@
     <t>Slowness</t>
   </si>
   <si>
-    <t>fills x HP immediatly</t>
-  </si>
-  <si>
-    <t>regenerates x HP over n rounds</t>
-  </si>
-  <si>
     <t>reverses poison effect</t>
   </si>
   <si>
-    <t>increases strength by x for n rounds</t>
-  </si>
-  <si>
-    <t>increases speed by x for n rounds</t>
-  </si>
-  <si>
-    <t>increases accuracy by x for n rounds</t>
-  </si>
-  <si>
-    <t>decreases accuracy by x for n rounds</t>
-  </si>
-  <si>
-    <t>descreases speed by x for n rounds</t>
-  </si>
-  <si>
-    <t>deals x damage for n rounds</t>
-  </si>
-  <si>
-    <t>decreases strength by x for n rounds</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -856,13 +829,40 @@
   </si>
   <si>
     <t>Monster_Count</t>
+  </si>
+  <si>
+    <t>fills xxx HP immediatly</t>
+  </si>
+  <si>
+    <t>regenerates xxx HP over nnn rounds</t>
+  </si>
+  <si>
+    <t>increases strength by xxx for nnn rounds</t>
+  </si>
+  <si>
+    <t>increases speed by xxx for nnn rounds</t>
+  </si>
+  <si>
+    <t>increases accuracy by xxx for nnn rounds</t>
+  </si>
+  <si>
+    <t>decreases accuracy by xxx for nnn rounds</t>
+  </si>
+  <si>
+    <t>descreases speed by xxx for nnn rounds</t>
+  </si>
+  <si>
+    <t>deals xxx damage for nnn rounds</t>
+  </si>
+  <si>
+    <t>decreases strength by xxx for nnn rounds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,12 +1366,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="98">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1389,7 +1386,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1418,7 +1415,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1447,7 +1444,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1476,7 +1473,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1505,7 +1502,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1534,7 +1531,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1563,7 +1560,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1592,7 +1589,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1621,7 +1618,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1652,7 +1649,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1683,7 +1680,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1712,7 +1709,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1741,7 +1738,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1785,7 +1782,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1816,7 +1813,7 @@
           <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1841,7 +1838,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1876,7 +1873,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1911,7 +1908,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1946,7 +1943,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1981,7 +1978,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2016,7 +2013,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2051,7 +2048,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2086,7 +2083,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2121,7 +2118,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2158,7 +2155,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2193,7 +2190,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2228,7 +2225,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2285,7 +2282,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2316,7 +2313,7 @@
           <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2335,7 +2332,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2364,7 +2361,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2393,7 +2390,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2422,7 +2419,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2451,7 +2448,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2482,7 +2479,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2513,7 +2510,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2544,7 +2541,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2573,7 +2570,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2602,7 +2599,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2653,7 +2650,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2684,7 +2681,7 @@
           <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2703,7 +2700,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2732,7 +2729,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2761,7 +2758,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2790,7 +2787,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -2817,7 +2814,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2844,7 +2841,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2873,7 +2870,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2902,7 +2899,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2931,7 +2928,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2962,7 +2959,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2993,7 +2990,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3022,7 +3019,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3051,7 +3048,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3095,7 +3092,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3126,7 +3123,7 @@
           <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3145,7 +3142,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3176,7 +3173,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3205,7 +3202,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3234,7 +3231,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3265,7 +3262,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -3296,7 +3293,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3325,7 +3322,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3352,7 +3349,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -3396,7 +3393,7 @@
         <name val="Verdana"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3427,7 +3424,7 @@
           <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -3449,6 +3446,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -3509,7 +3509,7 @@
           <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3769,28 +3769,28 @@
     <tableColumn id="10" uniqueName="hard" name="hard" dataDxfId="86">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster/hard" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="Monster_Count" name="Monster_Count" dataDxfId="0">
+    <tableColumn id="18" uniqueName="Monster_Count" name="Monster_Count" dataDxfId="85">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Monster_Count" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Item_Multiplier" name="Item_Multiplier" dataDxfId="85">
+    <tableColumn id="11" uniqueName="Item_Multiplier" name="Item_Multiplier" dataDxfId="84">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Item_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="none" name="none" dataDxfId="84">
+    <tableColumn id="17" uniqueName="none" name="none" dataDxfId="83">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/none" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="weak" name="weak" dataDxfId="83">
+    <tableColumn id="12" uniqueName="weak" name="weak" dataDxfId="82">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/weak" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="medium" name="medium" dataDxfId="82">
+    <tableColumn id="13" uniqueName="medium" name="medium" dataDxfId="81">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/medium" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="strong" name="strong" dataDxfId="81">
+    <tableColumn id="14" uniqueName="strong" name="strong" dataDxfId="80">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Find_Probabilities/strong" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="Item_Count" name="Item_Count" dataDxfId="80">
+    <tableColumn id="15" uniqueName="Item_Count" name="Item_Count" dataDxfId="79">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Item_Count" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="Image" name="Image" dataDxfId="79">
+    <tableColumn id="16" uniqueName="Image" name="Image" dataDxfId="78">
       <xmlColumnPr mapId="80" xpath="/Rooms/Room/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3799,31 +3799,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H5" tableType="xml" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" connectionId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:H5" tableType="xml" totalsRowShown="0" headerRowDxfId="77" dataDxfId="75" headerRowBorderDxfId="76" tableBorderDxfId="74" connectionId="18">
   <autoFilter ref="A1:H5"/>
   <tableColumns count="8">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="74">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="73">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="73">
+    <tableColumn id="8" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="72">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="72">
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="71">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="71">
+    <tableColumn id="7" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="70">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="70">
+    <tableColumn id="2" uniqueName="HP_Damage" name="HP Damage" dataDxfId="69">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/HP_Damage" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="69">
+    <tableColumn id="3" uniqueName="Hit_Probability" name="Hit Probability" dataDxfId="68">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Hit_Probability" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="68">
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="67">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/Effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="x" name="x" dataDxfId="67">
+    <tableColumn id="5" uniqueName="x" name="x" dataDxfId="66">
       <xmlColumnPr mapId="68" xpath="/Attacks/Attack/x" xmlDataType="double"/>
     </tableColumn>
   </tableColumns>
@@ -3832,46 +3832,46 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" connectionId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A1:M13" tableType="xml" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" connectionId="21">
   <autoFilter ref="A1:M13"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="62">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="61">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="61">
+    <tableColumn id="2" uniqueName="Level" name="Level" dataDxfId="60">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Level" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="60">
+    <tableColumn id="14" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="59">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="59">
+    <tableColumn id="10" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="58">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="58">
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="57">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="57">
+    <tableColumn id="3" uniqueName="HP" name="HP" dataDxfId="56">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/HP" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="56">
+    <tableColumn id="4" uniqueName="Strength" name="Strength" dataDxfId="55">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Strength" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="55">
+    <tableColumn id="5" uniqueName="Speed" name="Speed" dataDxfId="54">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="54">
+    <tableColumn id="6" uniqueName="Accuracy" name="Accuracy" dataDxfId="53">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Accuracy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="53">
+    <tableColumn id="7" uniqueName="Kill_Bonus_Type" name="Kill Bonus Type" dataDxfId="52">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="52">
+    <tableColumn id="8" uniqueName="Kill_Bonus_Low" name="Kill Bonus Low" dataDxfId="51">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_Low" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="51">
+    <tableColumn id="9" uniqueName="Kill_Bonus_High" name="Kill Bonus High" dataDxfId="50">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Kill_Bonus_High" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Image" name="Image" dataDxfId="50">
+    <tableColumn id="11" uniqueName="Image" name="Image" dataDxfId="49">
       <xmlColumnPr mapId="71" xpath="/Monsters/Monster/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3880,37 +3880,37 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:J16" tableType="xml" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45" connectionId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:J16" tableType="xml" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44" connectionId="3">
   <autoFilter ref="A1:J16"/>
   <tableColumns count="10">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="44">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="43">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="43">
+    <tableColumn id="9" uniqueName="Item_Class" name="Item Class" dataDxfId="42">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="42">
+    <tableColumn id="10" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="41">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="41">
+    <tableColumn id="6" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="40">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="40">
+    <tableColumn id="11" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="39">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="39">
+    <tableColumn id="2" uniqueName="Armor" name="Armor" dataDxfId="38">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Armor" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="38">
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="37">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="37">
+    <tableColumn id="4" uniqueName="Type" name="Type" dataDxfId="36">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="36">
+    <tableColumn id="5" uniqueName="Bonus" name="Bonus" dataDxfId="35">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Bonus" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Image" name="Image" dataDxfId="35">
+    <tableColumn id="7" uniqueName="Image" name="Image" dataDxfId="34">
       <xmlColumnPr mapId="74" xpath="/Armaments/Armament/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3919,43 +3919,43 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L11" tableType="xml" totalsRowShown="0" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30" connectionId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L11" tableType="xml" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29" connectionId="32">
   <autoFilter ref="A1:L11"/>
   <tableColumns count="12">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="29">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="28">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="28">
+    <tableColumn id="10" uniqueName="Item_Class" name="Item Class" dataDxfId="27">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="27">
+    <tableColumn id="11" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="26">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="26">
+    <tableColumn id="12" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="25">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="25">
+    <tableColumn id="13" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="24">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="24">
+    <tableColumn id="2" uniqueName="Description" name="Description" dataDxfId="23">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="23">
+    <tableColumn id="3" uniqueName="Target" name="Target" dataDxfId="22">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="22">
+    <tableColumn id="4" uniqueName="Effect" name="Effect" dataDxfId="21">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Effect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="21">
+    <tableColumn id="5" uniqueName="Mode" name="Mode" dataDxfId="20">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Mode" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="20">
+    <tableColumn id="6" uniqueName="x" name="x" dataDxfId="19">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/x" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="19">
+    <tableColumn id="7" uniqueName="n" name="n" dataDxfId="18">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/n" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Image" name="Image" dataDxfId="18">
+    <tableColumn id="8" uniqueName="Image" name="Image" dataDxfId="17">
       <xmlColumnPr mapId="75" xpath="/Potions/Potion/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -3964,47 +3964,47 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M9" tableType="xml" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" connectionId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M9" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" connectionId="57">
   <autoFilter ref="A1:M9"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="13">
+    <tableColumn id="1" uniqueName="Name" name="Name" dataDxfId="12">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="12">
+    <tableColumn id="11" uniqueName="Item_Class" name="Item Class" dataDxfId="11">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Item_Class" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="11">
+    <tableColumn id="12" uniqueName="Class_Multiplier" name="Class Multiplier" dataDxfId="10">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Class_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="10">
+    <tableColumn id="13" uniqueName="Stats_Low_Multiplier" name="Stats Low Multiplier" dataDxfId="9">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Stats_Low_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="9">
+    <tableColumn id="14" uniqueName="Stats_High_Multiplier" name="Stats High Multiplier" dataDxfId="8">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Stats_High_Multiplier" xmlDataType="double"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="8">
+    <tableColumn id="2" uniqueName="Attack" name="Attack" dataDxfId="7">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Attack" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="7">
+    <tableColumn id="3" uniqueName="Speed" name="Speed" dataDxfId="6">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="6">
+    <tableColumn id="4" uniqueName="Accuracy" name="Accuracy" dataDxfId="5">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Accuracy" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="5">
+    <tableColumn id="5" uniqueName="Defence" name="Defence" dataDxfId="4">
       <calculatedColumnFormula>"-"</calculatedColumnFormula>
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Defence" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="4">
+    <tableColumn id="6" uniqueName="Slots" name="Slots" dataDxfId="3">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Slots" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="3">
+    <tableColumn id="7" uniqueName="Max" name="Max" dataDxfId="2">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Max" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="2">
+    <tableColumn id="8" uniqueName="Type" name="Type" dataDxfId="1">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="Image" name="Image" dataDxfId="1">
+    <tableColumn id="9" uniqueName="Image" name="Image" dataDxfId="0">
       <xmlColumnPr mapId="76" xpath="/Weapons/Weapon/Image" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4013,9 +4013,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4053,7 +4053,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4087,7 +4087,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4122,10 +4121,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4298,28 +4296,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4328,15 +4326,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31" style="21" customWidth="1"/>
     <col min="2" max="2" width="25.140625" style="21" bestFit="1" customWidth="1"/>
@@ -4358,17 +4356,17 @@
     <col min="18" max="18" width="28.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="A1" s="22"/>
       <c r="B1" s="22"/>
       <c r="C1" s="82" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D1" s="83"/>
       <c r="E1" s="83"/>
       <c r="F1" s="84"/>
       <c r="G1" s="82" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H1" s="83"/>
       <c r="I1" s="83"/>
@@ -4376,7 +4374,7 @@
       <c r="K1" s="79"/>
       <c r="L1" s="29"/>
       <c r="M1" s="86" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N1" s="87"/>
       <c r="O1" s="87"/>
@@ -4384,68 +4382,68 @@
       <c r="Q1" s="36"/>
       <c r="R1" s="38"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K2" s="78" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O2" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>157</v>
-      </c>
       <c r="R2" s="39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="21" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C3" s="26">
         <v>1</v>
@@ -4493,15 +4491,15 @@
         <v>3</v>
       </c>
       <c r="R3" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="21" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C4" s="26">
         <v>1</v>
@@ -4549,15 +4547,15 @@
         <v>2</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C5" s="26">
         <v>1</v>
@@ -4605,15 +4603,15 @@
         <v>2</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="21" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C6" s="26">
         <v>1</v>
@@ -4661,15 +4659,15 @@
         <v>1</v>
       </c>
       <c r="R6" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="21" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C7" s="26">
         <v>1</v>
@@ -4717,15 +4715,15 @@
         <v>1</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C8" s="26">
         <v>1</v>
@@ -4773,21 +4771,21 @@
         <v>5</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="21" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C10" s="85" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
       <c r="F10" s="85"/>
       <c r="G10" s="85" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85"/>
@@ -4796,15 +4794,15 @@
       <c r="L10" s="31"/>
       <c r="M10" s="33"/>
       <c r="N10" s="85" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O10" s="85"/>
       <c r="P10" s="85"/>
       <c r="Q10" s="33"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="21" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G11" s="34"/>
       <c r="H11" s="34"/>
@@ -4818,12 +4816,12 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="21" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -4832,15 +4830,15 @@
       <c r="L12" s="28"/>
       <c r="M12" s="34"/>
       <c r="N12" s="34" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="21" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -4850,15 +4848,15 @@
       <c r="L13" s="28"/>
       <c r="M13" s="34"/>
       <c r="N13" s="34" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O13" s="34"/>
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="G14" s="85" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H14" s="85"/>
       <c r="I14" s="85"/>
@@ -4871,12 +4869,12 @@
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="21" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G15" s="85" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H15" s="85"/>
       <c r="I15" s="85"/>
@@ -4889,9 +4887,9 @@
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="G16" s="85" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H16" s="85"/>
       <c r="I16" s="85"/>
@@ -4904,9 +4902,9 @@
       <c r="P16" s="33"/>
       <c r="Q16" s="33"/>
     </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:17">
       <c r="G17" s="85" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="H17" s="85"/>
       <c r="I17" s="85"/>
@@ -4919,9 +4917,9 @@
       <c r="P17" s="33"/>
       <c r="Q17" s="33"/>
     </row>
-    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:17">
       <c r="G18" s="85" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H18" s="85"/>
       <c r="I18" s="85"/>
@@ -4934,9 +4932,9 @@
       <c r="P18" s="33"/>
       <c r="Q18" s="33"/>
     </row>
-    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:17">
       <c r="G20" s="85" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H20" s="85"/>
       <c r="I20" s="85"/>
@@ -4949,9 +4947,9 @@
       <c r="P20" s="33"/>
       <c r="Q20" s="33"/>
     </row>
-    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:17">
       <c r="G21" s="85" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H21" s="85"/>
       <c r="I21" s="85"/>
@@ -4964,14 +4962,14 @@
       <c r="P21" s="33"/>
       <c r="Q21" s="33"/>
     </row>
-    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:17">
       <c r="G23" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17">
       <c r="G24" s="85" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H24" s="85"/>
       <c r="I24" s="85"/>
@@ -4984,9 +4982,9 @@
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
     </row>
-    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:17">
       <c r="G25" s="85" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H25" s="85"/>
       <c r="I25" s="85"/>
@@ -4999,9 +4997,9 @@
       <c r="P25" s="33"/>
       <c r="Q25" s="33"/>
     </row>
-    <row r="26" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:17">
       <c r="G26" s="85" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H26" s="85"/>
       <c r="I26" s="85"/>
@@ -5042,7 +5040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5050,7 +5048,7 @@
       <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="21" customWidth="1"/>
     <col min="2" max="2" width="20" style="27" customWidth="1"/>
@@ -5062,24 +5060,24 @@
     <col min="8" max="8" width="5.85546875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="40" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>159</v>
-      </c>
       <c r="E1" s="43" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F1" s="43" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G1" s="48" t="s">
         <v>16</v>
@@ -5088,9 +5086,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B2" s="44">
         <v>1</v>
@@ -5114,9 +5112,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B3" s="44">
         <v>1</v>
@@ -5140,9 +5138,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="14" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B4" s="44">
         <v>1</v>
@@ -5166,9 +5164,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B5" s="81">
         <v>1</v>
@@ -5192,9 +5190,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="41" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -5203,9 +5201,9 @@
       <c r="F7" s="28"/>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -5222,7 +5220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5230,7 +5228,7 @@
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="21" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="21" customWidth="1"/>
@@ -5247,24 +5245,24 @@
     <col min="13" max="13" width="34" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C1" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>159</v>
-      </c>
       <c r="F1" s="57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>22</v>
@@ -5276,24 +5274,24 @@
         <v>24</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K1" s="61" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M1" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C2" s="55">
         <v>1</v>
@@ -5326,15 +5324,15 @@
         <v>4</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C3" s="55">
         <v>1</v>
@@ -5367,15 +5365,15 @@
         <v>2</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="19" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C4" s="55">
         <v>1</v>
@@ -5408,15 +5406,15 @@
         <v>2</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="19" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C5" s="55">
         <v>1</v>
@@ -5449,15 +5447,15 @@
         <v>2</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C6" s="55">
         <v>1</v>
@@ -5490,15 +5488,15 @@
         <v>2</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" s="55">
         <v>1</v>
@@ -5531,15 +5529,15 @@
         <v>5</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C8" s="55">
         <v>1</v>
@@ -5572,15 +5570,15 @@
         <v>7</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C9" s="55">
         <v>1</v>
@@ -5613,15 +5611,15 @@
         <v>5</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C10" s="55">
         <v>1</v>
@@ -5654,15 +5652,15 @@
         <v>10</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C11" s="55">
         <v>1</v>
@@ -5695,15 +5693,15 @@
         <v>30</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C12" s="55">
         <v>1</v>
@@ -5736,15 +5734,15 @@
         <v>30</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C13" s="80">
         <v>1</v>
@@ -5777,37 +5775,37 @@
         <v>30</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="52" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="52" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="52" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
@@ -5823,7 +5821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5831,7 +5829,7 @@
       <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="21" customWidth="1"/>
@@ -5845,44 +5843,44 @@
     <col min="10" max="10" width="55" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C1" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>159</v>
-      </c>
       <c r="F1" s="57" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>23</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -5902,21 +5900,21 @@
         <v>13.333333333333334</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I2" s="64">
         <v>0.1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C3" s="65">
         <v>1</v>
@@ -5934,21 +5932,21 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I3" s="65">
         <v>0.1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -5968,21 +5966,21 @@
         <v>6.666666666666667</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I4" s="65">
         <v>0.1</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C5" s="65">
         <v>1</v>
@@ -6002,21 +6000,21 @@
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I5" s="65">
         <v>0.1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -6036,21 +6034,21 @@
         <v>6.666666666666667</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I6" s="65">
         <v>0.1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C7" s="65">
         <v>1</v>
@@ -6070,21 +6068,21 @@
         <v>16.666666666666668</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I7" s="65">
         <v>0.15</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -6102,21 +6100,21 @@
         <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I8" s="65">
         <v>0.15</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C9" s="65">
         <v>1</v>
@@ -6136,21 +6134,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I9" s="65">
         <v>0.15</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -6170,21 +6168,21 @@
         <v>12.5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I10" s="65">
         <v>0.15</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
@@ -6204,21 +6202,21 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I11" s="65">
         <v>0.15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -6238,21 +6236,21 @@
         <v>20</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I12" s="65">
         <v>0.2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C13" s="65">
         <v>1</v>
@@ -6270,21 +6268,21 @@
         <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I13" s="65">
         <v>0.2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -6304,21 +6302,21 @@
         <v>10</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I14" s="65">
         <v>0.2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C15" s="65">
         <v>1</v>
@@ -6338,21 +6336,21 @@
         <v>15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I15" s="65">
         <v>0.2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C16" s="64">
         <v>1</v>
@@ -6372,21 +6370,21 @@
         <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I16" s="66">
         <v>0.2</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
       <c r="C18" s="27" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G18" s="26" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6399,15 +6397,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="21" customWidth="1"/>
@@ -6423,24 +6421,24 @@
     <col min="12" max="12" width="54.85546875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C1" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>159</v>
-      </c>
       <c r="F1" s="70" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>17</v>
@@ -6458,15 +6456,15 @@
         <v>6</v>
       </c>
       <c r="L1" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -6478,7 +6476,7 @@
         <v>1.2</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>8</v>
@@ -6497,15 +6495,15 @@
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C3" s="65">
         <v>1</v>
@@ -6517,7 +6515,7 @@
         <v>1.2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
@@ -6536,15 +6534,15 @@
         <v>5</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -6556,7 +6554,7 @@
         <v>1.2</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -6574,15 +6572,15 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C5" s="65">
         <v>1</v>
@@ -6594,7 +6592,7 @@
         <v>1.2</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
@@ -6612,15 +6610,15 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -6632,7 +6630,7 @@
         <v>1.2</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -6650,15 +6648,15 @@
         <v>5</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C7" s="65">
         <v>1</v>
@@ -6670,7 +6668,7 @@
         <v>1.2</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -6688,15 +6686,15 @@
         <v>5</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -6708,7 +6706,7 @@
         <v>1.2</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>9</v>
@@ -6726,15 +6724,15 @@
         <v>5</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C9" s="65">
         <v>1</v>
@@ -6746,7 +6744,7 @@
         <v>1.2</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>9</v>
@@ -6764,15 +6762,15 @@
         <v>5</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -6784,7 +6782,7 @@
         <v>1.2</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>9</v>
@@ -6803,15 +6801,15 @@
         <v>5</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C11" s="65">
         <v>1</v>
@@ -6823,7 +6821,7 @@
         <v>1.2</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>9</v>
@@ -6841,12 +6839,12 @@
         <v>5</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="C13" s="27" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -6858,7 +6856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6866,7 +6864,7 @@
       <selection pane="topRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="21" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="21" customWidth="1"/>
@@ -6881,24 +6879,24 @@
     <col min="13" max="13" width="55.42578125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>159</v>
-      </c>
       <c r="F1" s="35" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>23</v>
@@ -6907,24 +6905,24 @@
         <v>24</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="L1" s="76" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
@@ -6957,18 +6955,18 @@
         <v>2</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -6998,18 +6996,18 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -7039,18 +7037,18 @@
         <v>2</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -7080,18 +7078,18 @@
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -7121,18 +7119,18 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -7162,18 +7160,18 @@
         <v>2</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -7203,18 +7201,18 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -7244,15 +7242,15 @@
         <v>1</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="C11" s="27" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
